--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E2249-36B9-45B6-8528-DDFAD175D8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCF5B1-145B-467A-B84B-38CB96E02019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="AllCustomField" sheetId="7" r:id="rId10"/>
     <sheet name="Item list Variants" sheetId="13" r:id="rId11"/>
     <sheet name="Item List Country" sheetId="9" r:id="rId12"/>
+    <sheet name="Service List (2)" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="1386">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3055,1123 +3056,1150 @@
     <t>English</t>
   </si>
   <si>
-    <t>arcadierteam1@gmail.com</t>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Variant Image</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>Item_01</t>
+  </si>
+  <si>
+    <t>without image</t>
+  </si>
+  <si>
+    <t>Item_02</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Item_03</t>
+  </si>
+  <si>
+    <t>Item_04</t>
+  </si>
+  <si>
+    <t>Item_05</t>
+  </si>
+  <si>
+    <t>Item_06</t>
+  </si>
+  <si>
+    <t>Item_07</t>
+  </si>
+  <si>
+    <t>Item_08</t>
+  </si>
+  <si>
+    <t>Item_09</t>
+  </si>
+  <si>
+    <t>Item_10</t>
+  </si>
+  <si>
+    <t>Item_11</t>
+  </si>
+  <si>
+    <t>Item_12</t>
+  </si>
+  <si>
+    <t>Item_13</t>
+  </si>
+  <si>
+    <t>Item_14</t>
+  </si>
+  <si>
+    <t>Item_15</t>
+  </si>
+  <si>
+    <t>Item_16</t>
+  </si>
+  <si>
+    <t>Item_17</t>
+  </si>
+  <si>
+    <t>Item_18</t>
+  </si>
+  <si>
+    <t>Item_19</t>
+  </si>
+  <si>
+    <t>with image</t>
+  </si>
+  <si>
+    <t>Item_20</t>
+  </si>
+  <si>
+    <t>Item_21</t>
+  </si>
+  <si>
+    <t>Item_22</t>
+  </si>
+  <si>
+    <t>Item_23</t>
+  </si>
+  <si>
+    <t>Item_24</t>
+  </si>
+  <si>
+    <t>Item_25</t>
+  </si>
+  <si>
+    <t>Item_26</t>
+  </si>
+  <si>
+    <t>Item_27</t>
+  </si>
+  <si>
+    <t>Item_28</t>
+  </si>
+  <si>
+    <t>Item_29</t>
+  </si>
+  <si>
+    <t>Item_30</t>
+  </si>
+  <si>
+    <t>Item_31</t>
+  </si>
+  <si>
+    <t>ITEM FOR EDIT</t>
+  </si>
+  <si>
+    <t>SKU078</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\Category\\23.png</t>
+  </si>
+  <si>
+    <t>SellerDisable</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\23.png</t>
+  </si>
+  <si>
+    <t>Buyer002</t>
+  </si>
+  <si>
+    <t>Buyer003</t>
+  </si>
+  <si>
+    <t>Buyer004</t>
+  </si>
+  <si>
+    <t>Buyer005</t>
+  </si>
+  <si>
+    <t>Buyer006</t>
+  </si>
+  <si>
+    <t>Buyer007</t>
+  </si>
+  <si>
+    <t>Buyer008</t>
+  </si>
+  <si>
+    <t>Buyer009</t>
+  </si>
+  <si>
+    <t>Buyer010</t>
+  </si>
+  <si>
+    <t>Buyer011</t>
+  </si>
+  <si>
+    <t>Buyer012</t>
+  </si>
+  <si>
+    <t>Buyer013</t>
+  </si>
+  <si>
+    <t>Buyer014</t>
+  </si>
+  <si>
+    <t>Buyer015</t>
+  </si>
+  <si>
+    <t>Buyer016</t>
+  </si>
+  <si>
+    <t>Buyer017</t>
+  </si>
+  <si>
+    <t>Buyer018</t>
+  </si>
+  <si>
+    <t>Buyer019</t>
+  </si>
+  <si>
+    <t>Buyer020</t>
+  </si>
+  <si>
+    <t>Buyer021</t>
+  </si>
+  <si>
+    <t>seller_adrianaocampo@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_annabehrensmeyer@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_blaisepascal@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_carolineherchel@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_ceciliagaposchkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_dorothyannhodgkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_edmondhalley@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_edwinhubble@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_enricofermi@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_erwinschroedinger@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_boysenisaacstaal@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_geraldineseydoux@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_lordkelvin@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_ruzenabajcsy@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_wilhelmheisenberg@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_shannonrutherford@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_sallyuna@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_apriljoypaulina@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_edmarcabugos@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_irhaxtinedelarosa@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_djstapleton@yopmail.com</t>
+  </si>
+  <si>
+    <t>seller_goldwyn@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_mktwain@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_snking@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_archristie@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_jnausten@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_ethemingway@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_anrand@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_csdickens@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_enpoe@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_osdazai@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_skfitzgerald@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_mtmitchell@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_ingoncharov@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_arpushkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_lyalcott@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_nlhawthorne@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_gnakutagawa@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_nesoseki@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_dyfgale@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_stohara@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_elwoods@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_anwilkes@yopmail.com</t>
+  </si>
+  <si>
+    <t>buyer_rtbukater@yopmail.com</t>
+  </si>
+  <si>
+    <t>BuyerDisable</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item1.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item3.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item4.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item5.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item6.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item7.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item8.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item9.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item11.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item12.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item13.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item14.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item15.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item16.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item17.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item18.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item19.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item20.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item21.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item22.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item23.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item24.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item25.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item26.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item27.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item28.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item29.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item30.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item31.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\UN Items\\item32.jpg</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>SERVICE NAME</t>
+  </si>
+  <si>
+    <t>BOOKINGS TYPE</t>
+  </si>
+  <si>
+    <t>SERVICE DURATION</t>
+  </si>
+  <si>
+    <t>SPECIFY DURATION</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>UNLIMITED BOOKINGS</t>
+  </si>
+  <si>
+    <t>BOOKINGS PER SESSION</t>
+  </si>
+  <si>
+    <t>SERVICE TYPE</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>POSTAL CODE</t>
+  </si>
+  <si>
+    <t>ADD ONS</t>
+  </si>
+  <si>
+    <t>Service per hour 24/7</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>Biella</t>
+  </si>
+  <si>
+    <t>Dorzano</t>
+  </si>
+  <si>
+    <t>Delivery 1</t>
+  </si>
+  <si>
+    <t>Service per day 24/7</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>The Cue 1525 Harvard Ave</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Service per week 24/7</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Blk 72 Lot 27, Daffodil St., Rizal</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>Service per month 24/7</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Fynshovedvej 57</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Region Sjælland</t>
+  </si>
+  <si>
+    <t>Greve</t>
+  </si>
+  <si>
+    <t>Service custom per 15min 24/7</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>1 Forks Market Rd</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>R3C 4L9</t>
+  </si>
+  <si>
+    <t>Delivery 2</t>
+  </si>
+  <si>
+    <t>Service custom per 150min 24/7</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>80 Terrace Street</t>
+  </si>
+  <si>
+    <t>Otamatea</t>
+  </si>
+  <si>
+    <t>Service custom per 1hour 24/7</t>
+  </si>
+  <si>
+    <t>350 Westview Commons Blvd,</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Service custom per 23hrs 24/7</t>
+  </si>
+  <si>
+    <t>77, Namsan-myeon</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Gangwon-do</t>
+  </si>
+  <si>
+    <t>Chuncheon-si</t>
+  </si>
+  <si>
+    <t>Service custom per 1day 24/7</t>
+  </si>
+  <si>
+    <t>Avenida 5 de Febrero Ote Zona Centro</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Service custom per 28day</t>
+  </si>
+  <si>
+    <t>4 Jingshan Front St</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Dongcheng Qu</t>
+  </si>
+  <si>
+    <t>Service per hour not 24/7</t>
+  </si>
+  <si>
+    <t>not 24/7</t>
+  </si>
+  <si>
+    <t>3A Calle 1-46</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Alta Verapaz Department</t>
+  </si>
+  <si>
+    <t>Cobán</t>
+  </si>
+  <si>
+    <t>Service per day not 24/7</t>
+  </si>
+  <si>
+    <t>6784 Ayala Avenue cor. V.A. Rufino Street</t>
+  </si>
+  <si>
+    <t>Service per week not 24/7</t>
+  </si>
+  <si>
+    <t>McArthur Highway, Matina,</t>
+  </si>
+  <si>
+    <t>Davao Region</t>
+  </si>
+  <si>
+    <t>Service per month not 24/7</t>
+  </si>
+  <si>
+    <t>Balic Balic Samar St</t>
+  </si>
+  <si>
+    <t>Service custom per 15min not 24/7</t>
+  </si>
+  <si>
+    <t>7AM - 10PM</t>
+  </si>
+  <si>
+    <t>Cybersouth, Dengkil</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Selangor</t>
+  </si>
+  <si>
+    <t>Sepang District</t>
+  </si>
+  <si>
+    <t>Service custom per 150min not 24/7</t>
+  </si>
+  <si>
+    <t>3 Primera Calle</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Cortés Department</t>
+  </si>
+  <si>
+    <t>San Pedro Sula</t>
+  </si>
+  <si>
+    <t>Service custom per 1hour not 24/7</t>
+  </si>
+  <si>
+    <t>24, Central Bazar Road, Ramdaspeth, Gandhi bagh, Ramdaspeth</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Service custom per 1day not 24/7</t>
+  </si>
+  <si>
+    <t>1113 Corniche El Nil</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo Governorate</t>
+  </si>
+  <si>
+    <t>Ismailia</t>
+  </si>
+  <si>
+    <t>Service Overnight</t>
+  </si>
+  <si>
+    <t>30 Pitt St,</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Service Overnight per Week</t>
+  </si>
+  <si>
+    <t>Maradu</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Kundannoor</t>
+  </si>
+  <si>
+    <t>Service Overnight per Month</t>
+  </si>
+  <si>
+    <t>Mama Ngina St</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Service Custom 1 night</t>
+  </si>
+  <si>
+    <t>600 E Benson Blvd</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Service Custom 28 night</t>
+  </si>
+  <si>
+    <t>custom / 28 night</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Jalan Mayjen Sungkono No. 120</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Kota SBY</t>
+  </si>
+  <si>
+    <t>disable by seller</t>
+  </si>
+  <si>
+    <t>107A Nguyễn Thiện Thuật, Lộc Thọ</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t>disable by admin</t>
+  </si>
+  <si>
+    <t>S.S. Khaled Road,</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>Lal Khan Bazar</t>
+  </si>
+  <si>
+    <t>delete by seller</t>
+  </si>
+  <si>
+    <t>46, Malpe Beach, Kola</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Udupi</t>
+  </si>
+  <si>
+    <t>delete by admin</t>
+  </si>
+  <si>
+    <t>negotiation</t>
+  </si>
+  <si>
+    <t>Qabanbay Batyr Ave 15</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>Service /hour not 24/7 (12pm -9pm)</t>
+  </si>
+  <si>
+    <t>Via Partenope, 38/44</t>
+  </si>
+  <si>
+    <t>Napoli, NA</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Service /day not 24/7 (Fri to Sun 9am - 5pm)</t>
+  </si>
+  <si>
+    <t>Amuwo Odofin Estate</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Default Overnight</t>
+  </si>
+  <si>
+    <t>Pickup 1</t>
+  </si>
+  <si>
+    <t>Pickup 2</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>arcadierteam@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo1.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage1.jpg</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Buyer001</t>
+  </si>
+  <si>
+    <t>overnight</t>
+  </si>
+  <si>
+    <t>unit1</t>
+  </si>
+  <si>
+    <t>unit2</t>
+  </si>
+  <si>
+    <t>01Seller</t>
+  </si>
+  <si>
+    <t>02Seller</t>
+  </si>
+  <si>
+    <t>03Seller</t>
+  </si>
+  <si>
+    <t>04Seller</t>
+  </si>
+  <si>
+    <t>05Seller</t>
+  </si>
+  <si>
+    <t>06Seller</t>
+  </si>
+  <si>
+    <t>07Seller</t>
+  </si>
+  <si>
+    <t>08Seller</t>
+  </si>
+  <si>
+    <t>09Seller</t>
+  </si>
+  <si>
+    <t>10Seller</t>
+  </si>
+  <si>
+    <t>11Seller</t>
+  </si>
+  <si>
+    <t>12Seller</t>
+  </si>
+  <si>
+    <t>13Seller</t>
+  </si>
+  <si>
+    <t>14Seller</t>
+  </si>
+  <si>
+    <t>15Seller</t>
+  </si>
+  <si>
+    <t>16Seller</t>
+  </si>
+  <si>
+    <t>17Seller</t>
+  </si>
+  <si>
+    <t>18Seller</t>
+  </si>
+  <si>
+    <t>19Seller</t>
+  </si>
+  <si>
+    <t>20Seller</t>
+  </si>
+  <si>
+    <t>21Seller</t>
+  </si>
+  <si>
+    <t>22Seller</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Variant Image</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Delivery Method</t>
-  </si>
-  <si>
-    <t>Item_01</t>
-  </si>
-  <si>
-    <t>without image</t>
-  </si>
-  <si>
-    <t>Item_02</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>Item_03</t>
-  </si>
-  <si>
-    <t>Item_04</t>
-  </si>
-  <si>
-    <t>Item_05</t>
-  </si>
-  <si>
-    <t>Item_06</t>
-  </si>
-  <si>
-    <t>Item_07</t>
-  </si>
-  <si>
-    <t>Item_08</t>
-  </si>
-  <si>
-    <t>Item_09</t>
-  </si>
-  <si>
-    <t>Item_10</t>
-  </si>
-  <si>
-    <t>Item_11</t>
-  </si>
-  <si>
-    <t>Item_12</t>
-  </si>
-  <si>
-    <t>Item_13</t>
-  </si>
-  <si>
-    <t>Item_14</t>
-  </si>
-  <si>
-    <t>Item_15</t>
-  </si>
-  <si>
-    <t>Item_16</t>
-  </si>
-  <si>
-    <t>Item_17</t>
-  </si>
-  <si>
-    <t>Item_18</t>
-  </si>
-  <si>
-    <t>Item_19</t>
-  </si>
-  <si>
-    <t>with image</t>
-  </si>
-  <si>
-    <t>Item_20</t>
-  </si>
-  <si>
-    <t>Item_21</t>
-  </si>
-  <si>
-    <t>Item_22</t>
-  </si>
-  <si>
-    <t>Item_23</t>
-  </si>
-  <si>
-    <t>Item_24</t>
-  </si>
-  <si>
-    <t>Item_25</t>
-  </si>
-  <si>
-    <t>Item_26</t>
-  </si>
-  <si>
-    <t>Item_27</t>
-  </si>
-  <si>
-    <t>Item_28</t>
-  </si>
-  <si>
-    <t>Item_29</t>
-  </si>
-  <si>
-    <t>Item_30</t>
-  </si>
-  <si>
-    <t>Item_31</t>
-  </si>
-  <si>
-    <t>ITEM FOR EDIT</t>
-  </si>
-  <si>
-    <t>SKU078</t>
-  </si>
-  <si>
-    <t>0526BPEMAN</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\LogoLayout\\logo2.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\LogoLayout\\coverimage3.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\1.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\2.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\3.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\4.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\5.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\6.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\7.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\8.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\9.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\10.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\11.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\12.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\13.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\14.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\15.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\16.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\17.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\18.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\19.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\20.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\21.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\22.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\Category\\23.png</t>
-  </si>
-  <si>
-    <t>Seller010</t>
-  </si>
-  <si>
-    <t>Seller011</t>
-  </si>
-  <si>
-    <t>Seller012</t>
-  </si>
-  <si>
-    <t>Seller013</t>
-  </si>
-  <si>
-    <t>Seller014</t>
-  </si>
-  <si>
-    <t>Seller015</t>
-  </si>
-  <si>
-    <t>Seller016</t>
-  </si>
-  <si>
-    <t>Seller017</t>
-  </si>
-  <si>
-    <t>Seller018</t>
-  </si>
-  <si>
-    <t>Seller019</t>
-  </si>
-  <si>
-    <t>Seller020</t>
-  </si>
-  <si>
-    <t>Seller021</t>
-  </si>
-  <si>
-    <t>Seller022</t>
-  </si>
-  <si>
-    <t>SellerDisable</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\1.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\2.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\3.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\4.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\5.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\6.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\7.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\8.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\9.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\10.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\11.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\12.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\13.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\14.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\15.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\16.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\17.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\18.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\19.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\20.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\21.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\22.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\SellerPhoto\\23.png</t>
-  </si>
-  <si>
-    <t>Buyer002</t>
-  </si>
-  <si>
-    <t>Buyer003</t>
-  </si>
-  <si>
-    <t>Buyer004</t>
-  </si>
-  <si>
-    <t>Buyer005</t>
-  </si>
-  <si>
-    <t>Buyer006</t>
-  </si>
-  <si>
-    <t>Buyer007</t>
-  </si>
-  <si>
-    <t>Buyer008</t>
-  </si>
-  <si>
-    <t>Buyer009</t>
-  </si>
-  <si>
-    <t>Buyer010</t>
-  </si>
-  <si>
-    <t>Buyer011</t>
-  </si>
-  <si>
-    <t>Buyer012</t>
-  </si>
-  <si>
-    <t>Buyer013</t>
-  </si>
-  <si>
-    <t>Buyer014</t>
-  </si>
-  <si>
-    <t>Buyer015</t>
-  </si>
-  <si>
-    <t>Buyer016</t>
-  </si>
-  <si>
-    <t>Buyer017</t>
-  </si>
-  <si>
-    <t>Buyer018</t>
-  </si>
-  <si>
-    <t>Buyer019</t>
-  </si>
-  <si>
-    <t>Buyer020</t>
-  </si>
-  <si>
-    <t>Buyer021</t>
-  </si>
-  <si>
-    <t>seller_adrianaocampo@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_annabehrensmeyer@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_blaisepascal@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_carolineherchel@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_ceciliagaposchkin@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_dorothyannhodgkin@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_edmondhalley@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_edwinhubble@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_enricofermi@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_erwinschroedinger@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_boysenisaacstaal@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_geraldineseydoux@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_lordkelvin@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_ruzenabajcsy@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_wilhelmheisenberg@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_shannonrutherford@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_sallyuna@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_apriljoypaulina@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_edmarcabugos@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_irhaxtinedelarosa@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_djstapleton@yopmail.com</t>
-  </si>
-  <si>
-    <t>seller_goldwyn@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_mktwain@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_snking@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_archristie@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_jnausten@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_ethemingway@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_anrand@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_csdickens@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_enpoe@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_osdazai@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_skfitzgerald@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_mtmitchell@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_ingoncharov@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_arpushkin@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_lyalcott@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_nlhawthorne@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_gnakutagawa@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_nesoseki@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_dyfgale@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_stohara@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_elwoods@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_anwilkes@yopmail.com</t>
-  </si>
-  <si>
-    <t>buyer_rtbukater@yopmail.com</t>
-  </si>
-  <si>
-    <t>BuyerDisable</t>
-  </si>
-  <si>
-    <t>Seller01</t>
-  </si>
-  <si>
-    <t>Seller02</t>
-  </si>
-  <si>
-    <t>Seller03</t>
-  </si>
-  <si>
-    <t>Seller04</t>
-  </si>
-  <si>
-    <t>Seller05</t>
-  </si>
-  <si>
-    <t>Seller06</t>
-  </si>
-  <si>
-    <t>Seller07</t>
-  </si>
-  <si>
-    <t>Seller08</t>
-  </si>
-  <si>
-    <t>Seller09</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item1.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item2.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item3.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item4.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item5.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item6.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item7.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item8.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item9.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item10.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item11.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item12.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item13.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item14.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item15.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item16.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item17.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item18.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item19.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item20.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item21.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item22.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item23.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item24.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item25.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item26.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item27.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item28.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item29.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item30.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item31.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Core\\Images\\UN Items\\item32.jpg</t>
-  </si>
-  <si>
-    <t>Buyer3</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>SERVICE NAME</t>
-  </si>
-  <si>
-    <t>BOOKINGS TYPE</t>
-  </si>
-  <si>
-    <t>SERVICE DURATION</t>
-  </si>
-  <si>
-    <t>SPECIFY DURATION</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>UNLIMITED BOOKINGS</t>
-  </si>
-  <si>
-    <t>BOOKINGS PER SESSION</t>
-  </si>
-  <si>
-    <t>SERVICE TYPE</t>
-  </si>
-  <si>
-    <t>OPERATION</t>
-  </si>
-  <si>
-    <t>SCHEDULE</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>POSTAL CODE</t>
-  </si>
-  <si>
-    <t>ADD ONS</t>
-  </si>
-  <si>
-    <t>Service per hour 24/7</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>24/7</t>
-  </si>
-  <si>
-    <t>Biella</t>
-  </si>
-  <si>
-    <t>Dorzano</t>
-  </si>
-  <si>
-    <t>Delivery 1</t>
-  </si>
-  <si>
-    <t>Service per day 24/7</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>The Cue 1525 Harvard Ave</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Service per week 24/7</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>Blk 72 Lot 27, Daffodil St., Rizal</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Service per month 24/7</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>Fynshovedvej 57</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Region Sjælland</t>
-  </si>
-  <si>
-    <t>Greve</t>
-  </si>
-  <si>
-    <t>Service custom per 15min 24/7</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>1 Forks Market Rd</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Manitoba</t>
-  </si>
-  <si>
-    <t>Winnipeg</t>
-  </si>
-  <si>
-    <t>R3C 4L9</t>
-  </si>
-  <si>
-    <t>Delivery 2</t>
-  </si>
-  <si>
-    <t>Service custom per 150min 24/7</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>80 Terrace Street</t>
-  </si>
-  <si>
-    <t>Otamatea</t>
-  </si>
-  <si>
-    <t>Service custom per 1hour 24/7</t>
-  </si>
-  <si>
-    <t>350 Westview Commons Blvd,</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Rochester</t>
-  </si>
-  <si>
-    <t>Service custom per 23hrs 24/7</t>
-  </si>
-  <si>
-    <t>77, Namsan-myeon</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Gangwon-do</t>
-  </si>
-  <si>
-    <t>Chuncheon-si</t>
-  </si>
-  <si>
-    <t>Service custom per 1day 24/7</t>
-  </si>
-  <si>
-    <t>Avenida 5 de Febrero Ote Zona Centro</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Durango</t>
-  </si>
-  <si>
-    <t>Service custom per 28day</t>
-  </si>
-  <si>
-    <t>4 Jingshan Front St</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Dongcheng Qu</t>
-  </si>
-  <si>
-    <t>Service per hour not 24/7</t>
-  </si>
-  <si>
-    <t>not 24/7</t>
-  </si>
-  <si>
-    <t>3A Calle 1-46</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Alta Verapaz Department</t>
-  </si>
-  <si>
-    <t>Cobán</t>
-  </si>
-  <si>
-    <t>Service per day not 24/7</t>
-  </si>
-  <si>
-    <t>6784 Ayala Avenue cor. V.A. Rufino Street</t>
-  </si>
-  <si>
-    <t>Service per week not 24/7</t>
-  </si>
-  <si>
-    <t>McArthur Highway, Matina,</t>
-  </si>
-  <si>
-    <t>Davao Region</t>
-  </si>
-  <si>
-    <t>Service per month not 24/7</t>
-  </si>
-  <si>
-    <t>Balic Balic Samar St</t>
-  </si>
-  <si>
-    <t>Service custom per 15min not 24/7</t>
-  </si>
-  <si>
-    <t>7AM - 10PM</t>
-  </si>
-  <si>
-    <t>Cybersouth, Dengkil</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Selangor</t>
-  </si>
-  <si>
-    <t>Sepang District</t>
-  </si>
-  <si>
-    <t>Service custom per 150min not 24/7</t>
-  </si>
-  <si>
-    <t>3 Primera Calle</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Cortés Department</t>
-  </si>
-  <si>
-    <t>San Pedro Sula</t>
-  </si>
-  <si>
-    <t>Service custom per 1hour not 24/7</t>
-  </si>
-  <si>
-    <t>24, Central Bazar Road, Ramdaspeth, Gandhi bagh, Ramdaspeth</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>Service custom per 1day not 24/7</t>
-  </si>
-  <si>
-    <t>1113 Corniche El Nil</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Cairo Governorate</t>
-  </si>
-  <si>
-    <t>Ismailia</t>
-  </si>
-  <si>
-    <t>Service Overnight</t>
-  </si>
-  <si>
-    <t>30 Pitt St,</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Service Overnight per Week</t>
-  </si>
-  <si>
-    <t>Maradu</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Kundannoor</t>
-  </si>
-  <si>
-    <t>Service Overnight per Month</t>
-  </si>
-  <si>
-    <t>Mama Ngina St</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>Service Custom 1 night</t>
-  </si>
-  <si>
-    <t>600 E Benson Blvd</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Service Custom 28 night</t>
-  </si>
-  <si>
-    <t>custom / 28 night</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>Jalan Mayjen Sungkono No. 120</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jawa Timur</t>
-  </si>
-  <si>
-    <t>Kota SBY</t>
-  </si>
-  <si>
-    <t>disable by seller</t>
-  </si>
-  <si>
-    <t>107A Nguyễn Thiện Thuật, Lộc Thọ</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Khánh Hòa</t>
-  </si>
-  <si>
-    <t>Nha Trang</t>
-  </si>
-  <si>
-    <t>disable by admin</t>
-  </si>
-  <si>
-    <t>S.S. Khaled Road,</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Chittagong</t>
-  </si>
-  <si>
-    <t>Lal Khan Bazar</t>
-  </si>
-  <si>
-    <t>delete by seller</t>
-  </si>
-  <si>
-    <t>46, Malpe Beach, Kola</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Udupi</t>
-  </si>
-  <si>
-    <t>delete by admin</t>
-  </si>
-  <si>
-    <t>negotiation</t>
-  </si>
-  <si>
-    <t>Qabanbay Batyr Ave 15</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Astana</t>
-  </si>
-  <si>
-    <t>Service /hour not 24/7 (12pm -9pm)</t>
-  </si>
-  <si>
-    <t>Via Partenope, 38/44</t>
-  </si>
-  <si>
-    <t>Napoli, NA</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Service /day not 24/7 (Fri to Sun 9am - 5pm)</t>
-  </si>
-  <si>
-    <t>Amuwo Odofin Estate</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Default Overnight</t>
-  </si>
-  <si>
-    <t>Pickup 1</t>
-  </si>
-  <si>
-    <t>Pickup 2</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>0626ST1</t>
+  </si>
+  <si>
+    <t>0626ST2</t>
+  </si>
+  <si>
+    <t>0626ST3</t>
+  </si>
+  <si>
+    <t>0626ST4</t>
+  </si>
+  <si>
+    <t>Theme 1</t>
+  </si>
+  <si>
+    <t>Theme 3</t>
+  </si>
+  <si>
+    <t>Theme 4</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +4359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4378,12 +4406,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4523,6 +4562,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4842,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4856,7 +4898,7 @@
     <col min="8" max="8" width="14.7109375" style="30" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="31" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="30" customWidth="1"/>
     <col min="13" max="13" width="12" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" style="30" customWidth="1"/>
@@ -4898,7 +4940,7 @@
       <c r="J1" s="30" t="s">
         <v>962</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>963</v>
       </c>
       <c r="L1" s="30" t="s">
@@ -4931,13 +4973,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="30" t="s">
-        <v>1005</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>976</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1047</v>
+        <v>1379</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>968</v>
@@ -4952,25 +4994,25 @@
         <v>971</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>1047</v>
+        <v>1379</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>972</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>1004</v>
+        <v>1348</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>1048</v>
+        <v>1349</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>1049</v>
+        <v>1350</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1006</v>
+        <v>1351</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>984</v>
+        <v>1383</v>
       </c>
       <c r="S2" s="30" t="s">
         <v>1001</v>
@@ -4980,25 +5022,154 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="K3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+      <c r="A3" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>984</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="K4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="A4" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="K5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
+      <c r="A5" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6042,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6A9F0-19FF-4A4A-B968-F6919F139D4A}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6074,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>746</v>
@@ -6083,24 +6254,24 @@
         <v>839</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>1184</v>
+        <v>1156</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>828</v>
@@ -6115,7 +6286,7 @@
         <v>858</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>848</v>
@@ -6126,13 +6297,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C3" t="s">
-        <v>1185</v>
+        <v>1157</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>829</v>
@@ -6147,24 +6318,24 @@
         <v>859</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>848</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C4" t="s">
-        <v>1186</v>
+        <v>1158</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>830</v>
@@ -6179,7 +6350,7 @@
         <v>860</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>848</v>
@@ -6190,13 +6361,13 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C5" t="s">
-        <v>1187</v>
+        <v>1159</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>831</v>
@@ -6211,24 +6382,24 @@
         <v>861</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>848</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C6" t="s">
-        <v>1188</v>
+        <v>1160</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>832</v>
@@ -6243,7 +6414,7 @@
         <v>862</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>848</v>
@@ -6254,13 +6425,13 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C7" t="s">
-        <v>1189</v>
+        <v>1161</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>833</v>
@@ -6275,24 +6446,24 @@
         <v>863</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>848</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C8" t="s">
-        <v>1190</v>
+        <v>1162</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>834</v>
@@ -6307,7 +6478,7 @@
         <v>864</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I8" s="8">
         <v>10</v>
@@ -6318,13 +6489,13 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C9" t="s">
-        <v>1191</v>
+        <v>1163</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>835</v>
@@ -6339,24 +6510,24 @@
         <v>865</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I9" s="8">
         <v>10</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C10" t="s">
-        <v>1192</v>
+        <v>1164</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>836</v>
@@ -6371,7 +6542,7 @@
         <v>866</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I10" s="8">
         <v>10</v>
@@ -6382,13 +6553,13 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C11" t="s">
-        <v>1193</v>
+        <v>1165</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>645</v>
@@ -6403,24 +6574,24 @@
         <v>867</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I11" s="8">
         <v>10</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C12" t="s">
-        <v>1194</v>
+        <v>1166</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>646</v>
@@ -6435,7 +6606,7 @@
         <v>868</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I12" s="8">
         <v>10</v>
@@ -6446,13 +6617,13 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C13" t="s">
-        <v>1195</v>
+        <v>1167</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>647</v>
@@ -6467,24 +6638,24 @@
         <v>869</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I13" s="8">
         <v>10</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C14" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>648</v>
@@ -6499,7 +6670,7 @@
         <v>870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -6510,13 +6681,13 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C15" t="s">
-        <v>1197</v>
+        <v>1169</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>649</v>
@@ -6531,24 +6702,24 @@
         <v>871</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C16" t="s">
-        <v>1198</v>
+        <v>1170</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>650</v>
@@ -6563,7 +6734,7 @@
         <v>872</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -6574,13 +6745,13 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C17" t="s">
-        <v>1199</v>
+        <v>1171</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>651</v>
@@ -6595,24 +6766,24 @@
         <v>873</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C18" t="s">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>652</v>
@@ -6627,7 +6798,7 @@
         <v>874</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -6638,13 +6809,13 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C19" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>653</v>
@@ -6659,7 +6830,7 @@
         <v>875</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -6670,13 +6841,13 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C20" t="s">
-        <v>1202</v>
+        <v>1174</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>654</v>
@@ -6691,22 +6862,22 @@
         <v>876</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C21" t="s">
-        <v>1203</v>
+        <v>1175</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>655</v>
@@ -6721,22 +6892,22 @@
         <v>877</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C22" t="s">
-        <v>1204</v>
+        <v>1176</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>656</v>
@@ -6751,7 +6922,7 @@
         <v>878</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="37" t="s">
@@ -6760,13 +6931,13 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C23" t="s">
-        <v>1205</v>
+        <v>1177</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>657</v>
@@ -6781,22 +6952,22 @@
         <v>879</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C24" t="s">
-        <v>1206</v>
+        <v>1178</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>658</v>
@@ -6811,7 +6982,7 @@
         <v>880</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="37" t="s">
@@ -6820,13 +6991,13 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C25" t="s">
-        <v>1207</v>
+        <v>1179</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>659</v>
@@ -6841,7 +7012,7 @@
         <v>881</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="37" t="s">
@@ -6850,13 +7021,13 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C26" t="s">
-        <v>1208</v>
+        <v>1180</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>660</v>
@@ -6871,22 +7042,22 @@
         <v>882</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C27" t="s">
-        <v>1209</v>
+        <v>1181</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>661</v>
@@ -6901,7 +7072,7 @@
         <v>883</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="37" t="s">
@@ -6910,13 +7081,13 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C28" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>662</v>
@@ -6931,22 +7102,22 @@
         <v>884</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C29" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>663</v>
@@ -6961,7 +7132,7 @@
         <v>885</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="37" t="s">
@@ -6970,13 +7141,13 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C30" t="s">
-        <v>1212</v>
+        <v>1184</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>664</v>
@@ -6991,7 +7162,7 @@
         <v>886</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="37" t="s">
@@ -7000,13 +7171,13 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C31" t="s">
-        <v>1213</v>
+        <v>1185</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>665</v>
@@ -7021,22 +7192,22 @@
         <v>887</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>1214</v>
+        <v>1186</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>666</v>
@@ -7051,25 +7222,25 @@
         <v>934</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>1215</v>
+        <v>1187</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>936</v>
@@ -7078,14 +7249,14 @@
         <v>150.5</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="37" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -10383,6 +10554,1813 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB165E2-AC50-4D96-ACE9-39C43ED2D7C9}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>1205</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>968</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>1211</v>
+      </c>
+      <c r="R2" s="41">
+        <v>13881</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="27" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="R3" s="8">
+        <v>98122</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="27" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G4" s="3">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="41">
+        <v>1209</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="27" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G5" s="3">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L5" s="40"/>
+      <c r="M5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2670</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R7" s="8">
+        <v>4500</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R8" s="41">
+        <v>14624</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="27" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24465</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="27" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>1252</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R10" s="41">
+        <v>34000</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="27" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="R11" s="8">
+        <v>100006</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="39.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>1263</v>
+      </c>
+      <c r="R12" s="8">
+        <v>16001</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="27" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" s="49">
+        <v>1226</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>936</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="27" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="R14" s="8">
+        <v>8000</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="R15" s="41">
+        <v>1008</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="27" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="R16" s="8">
+        <v>43800</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T16" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="39.75" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R17" s="8">
+        <v>43800</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="39.75" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="R18" s="8">
+        <v>440010</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="27" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R19" s="41">
+        <v>11221</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="G20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2000</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="R21" s="47">
+        <v>682304</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T21" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R22" s="8">
+        <v>440010</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="R23" s="8">
+        <v>99503</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R24" s="8">
+        <v>60256</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K25" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O25" s="50" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Q25" s="51" t="s">
+        <v>1320</v>
+      </c>
+      <c r="R25" s="52">
+        <v>67337</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>1322</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R26" s="52">
+        <v>4000</v>
+      </c>
+      <c r="S26" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O27" s="50" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q27" s="50" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R27" s="52">
+        <v>576108</v>
+      </c>
+      <c r="S27" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>1332</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>1333</v>
+      </c>
+      <c r="P28" s="50" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q28" s="50" t="s">
+        <v>1334</v>
+      </c>
+      <c r="R28" s="52">
+        <v>10010</v>
+      </c>
+      <c r="S28" s="50" t="s">
+        <v>935</v>
+      </c>
+      <c r="T28" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="P29" s="53" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R29" s="54">
+        <v>80121</v>
+      </c>
+      <c r="S29" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="T29" s="53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O30" s="53" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="R30" s="54">
+        <v>71639</v>
+      </c>
+      <c r="S30" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="T30" s="53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30.75" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N31" s="53" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R31" s="54">
+        <v>80121</v>
+      </c>
+      <c r="S31" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="T31" s="53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="39.75" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O32" s="53" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q32" s="54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="R32" s="54">
+        <v>71639</v>
+      </c>
+      <c r="S32" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="T32" s="53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="39.75" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N33" s="53" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R33" s="54">
+        <v>80121</v>
+      </c>
+      <c r="S33" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="T33" s="53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
@@ -10525,7 +12503,7 @@
         <v>633</v>
       </c>
       <c r="C2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D2" t="s">
         <v>636</v>
@@ -10539,7 +12517,7 @@
         <v>633</v>
       </c>
       <c r="C3" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D3" t="s">
         <v>637</v>
@@ -10553,7 +12531,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D4" t="s">
         <v>638</v>
@@ -10567,7 +12545,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D5" t="s">
         <v>639</v>
@@ -10581,7 +12559,7 @@
         <v>633</v>
       </c>
       <c r="C6" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D6" t="s">
         <v>640</v>
@@ -10595,7 +12573,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D7" t="s">
         <v>641</v>
@@ -10609,7 +12587,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D8" t="s">
         <v>642</v>
@@ -10623,7 +12601,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D9" t="s">
         <v>643</v>
@@ -10637,7 +12615,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D10" t="s">
         <v>644</v>
@@ -10651,7 +12629,7 @@
         <v>633</v>
       </c>
       <c r="C11" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D11" t="s">
         <v>645</v>
@@ -10665,7 +12643,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D12" t="s">
         <v>646</v>
@@ -10679,7 +12657,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D13" t="s">
         <v>647</v>
@@ -10693,7 +12671,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D14" t="s">
         <v>648</v>
@@ -10707,7 +12685,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D15" t="s">
         <v>649</v>
@@ -10721,7 +12699,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D16" t="s">
         <v>650</v>
@@ -10735,7 +12713,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D17" t="s">
         <v>651</v>
@@ -10749,7 +12727,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D18" t="s">
         <v>652</v>
@@ -10763,7 +12741,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D19" t="s">
         <v>653</v>
@@ -10777,7 +12755,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D20" t="s">
         <v>654</v>
@@ -10791,7 +12769,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D21" t="s">
         <v>655</v>
@@ -10805,7 +12783,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D22" t="s">
         <v>656</v>
@@ -10819,7 +12797,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D23" t="s">
         <v>657</v>
@@ -10833,7 +12811,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D24" t="s">
         <v>658</v>
@@ -10847,7 +12825,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D25" t="s">
         <v>659</v>
@@ -10861,7 +12839,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D26" t="s">
         <v>660</v>
@@ -10875,7 +12853,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D27" t="s">
         <v>661</v>
@@ -10889,7 +12867,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D28" t="s">
         <v>662</v>
@@ -10903,7 +12881,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D29" t="s">
         <v>663</v>
@@ -10917,7 +12895,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D30" t="s">
         <v>664</v>
@@ -10931,7 +12909,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D31" t="s">
         <v>665</v>
@@ -10945,7 +12923,7 @@
         <v>633</v>
       </c>
       <c r="C32" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D32" t="s">
         <v>666</v>
@@ -10959,7 +12937,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D33" t="s">
         <v>667</v>
@@ -10973,7 +12951,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D34" t="s">
         <v>668</v>
@@ -10987,7 +12965,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D35" t="s">
         <v>669</v>
@@ -11001,7 +12979,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D36" t="s">
         <v>670</v>
@@ -11015,7 +12993,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D37" t="s">
         <v>671</v>
@@ -11029,7 +13007,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D38" t="s">
         <v>672</v>
@@ -11043,7 +13021,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D39" t="s">
         <v>673</v>
@@ -11057,7 +13035,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D40" t="s">
         <v>674</v>
@@ -11071,7 +13049,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D41" t="s">
         <v>675</v>
@@ -11085,7 +13063,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D42" t="s">
         <v>676</v>
@@ -11099,7 +13077,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D43" t="s">
         <v>677</v>
@@ -11113,7 +13091,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D44" t="s">
         <v>678</v>
@@ -11127,7 +13105,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D45" t="s">
         <v>679</v>
@@ -11141,7 +13119,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D46" t="s">
         <v>680</v>
@@ -11155,7 +13133,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D47" t="s">
         <v>681</v>
@@ -11169,7 +13147,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D48" t="s">
         <v>682</v>
@@ -11183,7 +13161,7 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D49" t="s">
         <v>683</v>
@@ -11197,7 +13175,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D50" t="s">
         <v>684</v>
@@ -11211,7 +13189,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D51" t="s">
         <v>685</v>
@@ -11225,7 +13203,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D52" t="s">
         <v>686</v>
@@ -11239,7 +13217,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D53" t="s">
         <v>687</v>
@@ -11253,7 +13231,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D54" t="s">
         <v>688</v>
@@ -11267,7 +13245,7 @@
         <v>633</v>
       </c>
       <c r="C55" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D55" t="s">
         <v>689</v>
@@ -11281,7 +13259,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D56" t="s">
         <v>690</v>
@@ -11295,7 +13273,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D57" t="s">
         <v>691</v>
@@ -11309,7 +13287,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D58" t="s">
         <v>692</v>
@@ -11323,7 +13301,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D59" t="s">
         <v>693</v>
@@ -11337,7 +13315,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D60" t="s">
         <v>694</v>
@@ -11351,7 +13329,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D61" t="s">
         <v>695</v>
@@ -11365,7 +13343,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D62" t="s">
         <v>696</v>
@@ -11379,7 +13357,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D63" t="s">
         <v>697</v>
@@ -11393,7 +13371,7 @@
         <v>633</v>
       </c>
       <c r="C64" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D64" t="s">
         <v>698</v>
@@ -11407,7 +13385,7 @@
         <v>633</v>
       </c>
       <c r="C65" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D65" t="s">
         <v>699</v>
@@ -11421,7 +13399,7 @@
         <v>633</v>
       </c>
       <c r="C66" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D66" t="s">
         <v>700</v>
@@ -11435,7 +13413,7 @@
         <v>633</v>
       </c>
       <c r="C67" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D67" t="s">
         <v>701</v>
@@ -11449,7 +13427,7 @@
         <v>633</v>
       </c>
       <c r="C68" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D68" t="s">
         <v>702</v>
@@ -11463,7 +13441,7 @@
         <v>633</v>
       </c>
       <c r="C69" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D69" t="s">
         <v>703</v>
@@ -11477,7 +13455,7 @@
         <v>633</v>
       </c>
       <c r="C70" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D70" t="s">
         <v>704</v>
@@ -11491,7 +13469,7 @@
         <v>633</v>
       </c>
       <c r="C71" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D71" t="s">
         <v>705</v>
@@ -11505,7 +13483,7 @@
         <v>633</v>
       </c>
       <c r="C72" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D72" t="s">
         <v>706</v>
@@ -11519,7 +13497,7 @@
         <v>633</v>
       </c>
       <c r="C73" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D73" t="s">
         <v>707</v>
@@ -11533,7 +13511,7 @@
         <v>633</v>
       </c>
       <c r="C74" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="D74" t="s">
         <v>708</v>
@@ -11547,7 +13525,7 @@
         <v>633</v>
       </c>
       <c r="C75" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D75" t="s">
         <v>709</v>
@@ -11561,7 +13539,7 @@
         <v>633</v>
       </c>
       <c r="C76" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D76" t="s">
         <v>710</v>
@@ -11575,7 +13553,7 @@
         <v>633</v>
       </c>
       <c r="C77" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D77" t="s">
         <v>711</v>
@@ -11589,7 +13567,7 @@
         <v>633</v>
       </c>
       <c r="C78" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D78" t="s">
         <v>712</v>
@@ -11603,7 +13581,7 @@
         <v>633</v>
       </c>
       <c r="C79" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D79" t="s">
         <v>713</v>
@@ -11617,7 +13595,7 @@
         <v>633</v>
       </c>
       <c r="C80" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D80" t="s">
         <v>714</v>
@@ -12804,7 +14782,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12870,10 +14848,10 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1">
       <c r="A2" s="38" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1175</v>
+        <v>1356</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>161</v>
@@ -12885,7 +14863,7 @@
         <v>163</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>581</v>
@@ -12917,10 +14895,10 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1">
       <c r="A3" s="38" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1176</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>168</v>
@@ -12932,7 +14910,7 @@
         <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>589</v>
@@ -12964,10 +14942,10 @@
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1">
       <c r="A4" s="38" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1177</v>
+        <v>1358</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>173</v>
@@ -12979,7 +14957,7 @@
         <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>582</v>
@@ -13009,10 +14987,10 @@
     </row>
     <row r="5" spans="1:15" ht="39.75" thickBot="1">
       <c r="A5" s="38" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1178</v>
+        <v>1359</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>178</v>
@@ -13024,7 +15002,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>583</v>
@@ -13056,10 +15034,10 @@
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1">
       <c r="A6" s="38" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1179</v>
+        <v>1360</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>185</v>
@@ -13071,7 +15049,7 @@
         <v>187</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>584</v>
@@ -13103,10 +15081,10 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1">
       <c r="A7" s="38" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1180</v>
+        <v>1361</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>192</v>
@@ -13118,7 +15096,7 @@
         <v>194</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>585</v>
@@ -13150,10 +15128,10 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1181</v>
+        <v>1362</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>198</v>
@@ -13165,7 +15143,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>586</v>
@@ -13197,10 +15175,10 @@
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1">
       <c r="A9" s="38" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1182</v>
+        <v>1363</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>203</v>
@@ -13212,7 +15190,7 @@
         <v>205</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>587</v>
@@ -13244,10 +15222,10 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1183</v>
+        <v>1364</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>208</v>
@@ -13259,7 +15237,7 @@
         <v>210</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>588</v>
@@ -13291,10 +15269,10 @@
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1">
       <c r="A11" s="38" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1073</v>
+        <v>1365</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>212</v>
@@ -13306,7 +15284,7 @@
         <v>214</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>590</v>
@@ -13338,10 +15316,10 @@
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1">
       <c r="A12" s="38" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1074</v>
+        <v>1366</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>217</v>
@@ -13353,7 +15331,7 @@
         <v>219</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>591</v>
@@ -13385,10 +15363,10 @@
     </row>
     <row r="13" spans="1:15" ht="27" thickBot="1">
       <c r="A13" s="38" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1075</v>
+        <v>1367</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>222</v>
@@ -13400,7 +15378,7 @@
         <v>224</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>592</v>
@@ -13432,10 +15410,10 @@
     </row>
     <row r="14" spans="1:15" ht="39.75" thickBot="1">
       <c r="A14" s="38" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1076</v>
+        <v>1368</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>227</v>
@@ -13447,7 +15425,7 @@
         <v>229</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>593</v>
@@ -13479,10 +15457,10 @@
     </row>
     <row r="15" spans="1:15" ht="39.75" thickBot="1">
       <c r="A15" s="38" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1077</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>232</v>
@@ -13494,7 +15472,7 @@
         <v>234</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>594</v>
@@ -13526,10 +15504,10 @@
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1">
       <c r="A16" s="38" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1078</v>
+        <v>1370</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>238</v>
@@ -13541,7 +15519,7 @@
         <v>240</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>595</v>
@@ -13573,10 +15551,10 @@
     </row>
     <row r="17" spans="1:15" ht="39.75" thickBot="1">
       <c r="A17" s="38" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1079</v>
+        <v>1371</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>243</v>
@@ -13588,7 +15566,7 @@
         <v>245</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>596</v>
@@ -13620,10 +15598,10 @@
     </row>
     <row r="18" spans="1:15" ht="39.75" thickBot="1">
       <c r="A18" s="38" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1080</v>
+        <v>1372</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>248</v>
@@ -13635,7 +15613,7 @@
         <v>250</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>597</v>
@@ -13667,10 +15645,10 @@
     </row>
     <row r="19" spans="1:15" ht="39.75" thickBot="1">
       <c r="A19" s="38" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1081</v>
+        <v>1373</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>253</v>
@@ -13682,7 +15660,7 @@
         <v>255</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>598</v>
@@ -13712,10 +15690,10 @@
     </row>
     <row r="20" spans="1:15" ht="39.75" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1082</v>
+        <v>1374</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>257</v>
@@ -13727,7 +15705,7 @@
         <v>259</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>599</v>
@@ -13757,10 +15735,10 @@
     </row>
     <row r="21" spans="1:15" ht="39.75" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1083</v>
+        <v>1375</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>264</v>
@@ -13772,7 +15750,7 @@
         <v>266</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>600</v>
@@ -13802,10 +15780,10 @@
     </row>
     <row r="22" spans="1:15" ht="39.75" thickBot="1">
       <c r="A22" s="38" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1084</v>
+        <v>1376</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>269</v>
@@ -13817,7 +15795,7 @@
         <v>271</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>601</v>
@@ -13847,10 +15825,10 @@
     </row>
     <row r="23" spans="1:15" ht="27" thickBot="1">
       <c r="A23" s="38" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1085</v>
+        <v>1377</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>275</v>
@@ -13862,7 +15840,7 @@
         <v>277</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>602</v>
@@ -13892,10 +15870,10 @@
     </row>
     <row r="24" spans="1:15" ht="27" thickBot="1">
       <c r="A24" s="38" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>275</v>
@@ -13907,7 +15885,7 @@
         <v>277</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>602</v>
@@ -13949,7 +15927,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14002,10 +15980,10 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1216</v>
+        <v>1352</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>281</v>
@@ -14014,7 +15992,7 @@
         <v>282</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>603</v>
@@ -14037,10 +16015,10 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="38" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>283</v>
@@ -14049,7 +16027,7 @@
         <v>284</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>604</v>
@@ -14072,10 +16050,10 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A4" s="38" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>285</v>
@@ -14084,7 +16062,7 @@
         <v>286</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>605</v>
@@ -14107,10 +16085,10 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1">
       <c r="A5" s="38" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>287</v>
@@ -14119,7 +16097,7 @@
         <v>288</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>606</v>
@@ -14142,10 +16120,10 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A6" s="38" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>289</v>
@@ -14154,7 +16132,7 @@
         <v>290</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>607</v>
@@ -14177,10 +16155,10 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A7" s="38" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>294</v>
@@ -14189,7 +16167,7 @@
         <v>295</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>608</v>
@@ -14212,10 +16190,10 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>299</v>
@@ -14224,7 +16202,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>609</v>
@@ -14247,10 +16225,10 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A9" s="38" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>301</v>
@@ -14259,7 +16237,7 @@
         <v>302</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>610</v>
@@ -14282,10 +16260,10 @@
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>303</v>
@@ -14294,7 +16272,7 @@
         <v>304</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>611</v>
@@ -14317,10 +16295,10 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A11" s="38" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>305</v>
@@ -14329,7 +16307,7 @@
         <v>306</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>612</v>
@@ -14352,10 +16330,10 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A12" s="38" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>307</v>
@@ -14364,7 +16342,7 @@
         <v>308</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>613</v>
@@ -14387,10 +16365,10 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A13" s="38" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>309</v>
@@ -14399,7 +16377,7 @@
         <v>310</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>614</v>
@@ -14422,10 +16400,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1">
       <c r="A14" s="38" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>311</v>
@@ -14434,7 +16412,7 @@
         <v>312</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>615</v>
@@ -14457,10 +16435,10 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A15" s="38" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>313</v>
@@ -14469,7 +16447,7 @@
         <v>314</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>616</v>
@@ -14492,10 +16470,10 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1">
       <c r="A16" s="38" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>315</v>
@@ -14504,7 +16482,7 @@
         <v>316</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>617</v>
@@ -14527,10 +16505,10 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A17" s="38" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>317</v>
@@ -14539,7 +16517,7 @@
         <v>318</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1167</v>
+        <v>1148</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>618</v>
@@ -14562,10 +16540,10 @@
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A18" s="38" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>319</v>
@@ -14574,7 +16552,7 @@
         <v>320</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>619</v>
@@ -14597,10 +16575,10 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A19" s="38" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>321</v>
@@ -14609,7 +16587,7 @@
         <v>322</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>620</v>
@@ -14632,10 +16610,10 @@
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>323</v>
@@ -14644,7 +16622,7 @@
         <v>324</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>621</v>
@@ -14667,10 +16645,10 @@
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>326</v>
@@ -14679,7 +16657,7 @@
         <v>327</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>622</v>
@@ -14702,10 +16680,10 @@
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="27" thickBot="1">
       <c r="A22" s="38" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>328</v>
@@ -14714,7 +16692,7 @@
         <v>329</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>623</v>
@@ -14737,7 +16715,7 @@
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1">
       <c r="A23" s="38" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>330</v>
@@ -14749,7 +16727,7 @@
         <v>332</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>624</v>
@@ -14772,10 +16750,10 @@
     </row>
     <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="38" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>331</v>
@@ -14784,7 +16762,7 @@
         <v>332</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>624</v>
@@ -14815,14 +16793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591EF17A-6374-411F-B9F2-D29C4B89EBC1}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" customWidth="1"/>
@@ -14840,78 +16818,78 @@
   <sheetData>
     <row r="1" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="34" t="s">
-        <v>1217</v>
+        <v>1188</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1218</v>
+        <v>1189</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>1219</v>
+        <v>1190</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>1220</v>
+        <v>1191</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1221</v>
+        <v>1192</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>1222</v>
+        <v>1193</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>1223</v>
+        <v>1194</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>1224</v>
+        <v>1195</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>1225</v>
+        <v>1196</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>1227</v>
+        <v>1198</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>1228</v>
+        <v>1199</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>1229</v>
+        <v>1200</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>1230</v>
+        <v>1201</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>1231</v>
+        <v>1202</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>1232</v>
+        <v>1203</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>1233</v>
+        <v>1204</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>1234</v>
+        <v>1205</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>1235</v>
+        <v>1206</v>
       </c>
       <c r="T1" s="34" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="27" thickBot="1">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>840</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1372</v>
+        <v>1207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1354</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -14925,14 +16903,14 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" t="s">
-        <v>1184</v>
+        <v>1156</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>969</v>
@@ -14941,10 +16919,10 @@
         <v>968</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>1239</v>
+        <v>1210</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="R2" s="41">
         <v>13881</v>
@@ -14953,7 +16931,7 @@
         <v>936</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="27" thickBot="1">
@@ -14961,13 +16939,13 @@
         <v>841</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1372</v>
+        <v>1213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1354</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
@@ -14979,26 +16957,26 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" t="s">
-        <v>1185</v>
+        <v>1157</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>1244</v>
+        <v>1215</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1245</v>
+        <v>1216</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1246</v>
+        <v>1217</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1247</v>
+        <v>1218</v>
       </c>
       <c r="R3" s="8">
         <v>98122</v>
@@ -15007,7 +16985,7 @@
         <v>935</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="27" thickBot="1">
@@ -15015,13 +16993,13 @@
         <v>842</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1372</v>
+        <v>1219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1354</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1249</v>
+        <v>1220</v>
       </c>
       <c r="G4" s="3">
         <v>20</v>
@@ -15033,23 +17011,23 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L4" s="40"/>
       <c r="M4" t="s">
-        <v>1186</v>
+        <v>1158</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>191</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>1251</v>
+        <v>1222</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>197</v>
@@ -15061,7 +17039,7 @@
         <v>936</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>1374</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27" thickBot="1">
@@ -15069,13 +17047,13 @@
         <v>843</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1372</v>
+        <v>1223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1354</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1253</v>
+        <v>1224</v>
       </c>
       <c r="G5" s="3">
         <v>20</v>
@@ -15087,26 +17065,26 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L5" s="40"/>
       <c r="M5" t="s">
-        <v>1187</v>
+        <v>1159</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1254</v>
+        <v>1225</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1256</v>
+        <v>1227</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1257</v>
+        <v>1228</v>
       </c>
       <c r="R5" s="8">
         <v>2670</v>
@@ -15115,24 +17093,24 @@
         <v>935</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="27" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>844</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1372</v>
+        <v>1229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1354</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>976</v>
       </c>
       <c r="E6" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="G6" s="3">
         <v>20</v>
@@ -15144,52 +17122,52 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" t="s">
-        <v>1188</v>
+        <v>1160</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>1260</v>
+        <v>1231</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>1261</v>
+        <v>1232</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>1262</v>
+        <v>1233</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>1263</v>
+        <v>1234</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>1264</v>
+        <v>1235</v>
       </c>
       <c r="S6" s="40" t="s">
         <v>936</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="39.75" thickBot="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>840</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1372</v>
+        <v>1237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1354</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E7" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -15204,26 +17182,26 @@
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" t="s">
-        <v>1189</v>
+        <v>1161</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="R7" s="8">
         <v>4500</v>
@@ -15232,7 +17210,7 @@
         <v>935</v>
       </c>
       <c r="T7" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" thickBot="1">
@@ -15240,16 +17218,16 @@
         <v>841</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1372</v>
+        <v>1241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1354</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>976</v>
       </c>
       <c r="E8" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="G8" s="3">
         <v>20</v>
@@ -15261,26 +17239,26 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" t="s">
-        <v>1190</v>
+        <v>1162</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>1245</v>
+        <v>1216</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>1272</v>
+        <v>1243</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>1273</v>
+        <v>1244</v>
       </c>
       <c r="R8" s="41">
         <v>14624</v>
@@ -15289,7 +17267,7 @@
         <v>936</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>1375</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="27" thickBot="1">
@@ -15297,16 +17275,16 @@
         <v>842</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1372</v>
+        <v>1245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1354</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E9" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="F9">
         <v>23</v>
@@ -15321,26 +17299,26 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" t="s">
-        <v>1191</v>
+        <v>1163</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>1278</v>
+        <v>1249</v>
       </c>
       <c r="R9" s="8">
         <v>24465</v>
@@ -15349,7 +17327,7 @@
         <v>935</v>
       </c>
       <c r="T9" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1">
@@ -15357,16 +17335,16 @@
         <v>843</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1372</v>
+        <v>1250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1354</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>976</v>
       </c>
       <c r="E10" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="G10" s="3">
         <v>20</v>
@@ -15378,26 +17356,26 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" t="s">
-        <v>1192</v>
+        <v>1164</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>1280</v>
+        <v>1251</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>1281</v>
+        <v>1252</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>1282</v>
+        <v>1253</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>1282</v>
+        <v>1253</v>
       </c>
       <c r="R10" s="41">
         <v>34000</v>
@@ -15406,7 +17384,7 @@
         <v>936</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" thickBot="1">
@@ -15414,16 +17392,16 @@
         <v>844</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1372</v>
+        <v>1254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1354</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E11" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="F11">
         <v>28</v>
@@ -15438,26 +17416,26 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" t="s">
-        <v>1193</v>
+        <v>1165</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1284</v>
+        <v>1255</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1285</v>
+        <v>1256</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="R11" s="8">
         <v>100006</v>
@@ -15466,7 +17444,7 @@
         <v>935</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="39.75" thickBot="1">
@@ -15474,13 +17452,13 @@
         <v>840</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1372</v>
+        <v>1258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1354</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="G12" s="3">
         <v>10</v>
@@ -15492,26 +17470,26 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" t="s">
-        <v>1194</v>
+        <v>1166</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>1289</v>
+        <v>1260</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1290</v>
+        <v>1261</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1291</v>
+        <v>1262</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>1292</v>
+        <v>1263</v>
       </c>
       <c r="R12" s="8">
         <v>16001</v>
@@ -15520,7 +17498,7 @@
         <v>935</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="27" thickBot="1">
@@ -15528,13 +17506,13 @@
         <v>841</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1372</v>
+        <v>1264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1354</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="G13" s="3">
         <v>10</v>
@@ -15546,23 +17524,23 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" t="s">
-        <v>1195</v>
+        <v>1167</v>
       </c>
       <c r="N13" s="48" t="s">
-        <v>1294</v>
+        <v>1265</v>
       </c>
       <c r="O13" s="48" t="s">
         <v>191</v>
       </c>
       <c r="P13" s="48" t="s">
-        <v>1251</v>
+        <v>1222</v>
       </c>
       <c r="Q13" s="48" t="s">
         <v>197</v>
@@ -15574,7 +17552,7 @@
         <v>936</v>
       </c>
       <c r="T13" s="48" t="s">
-        <v>1265</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="27" thickBot="1">
@@ -15582,13 +17560,13 @@
         <v>842</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1372</v>
+        <v>1266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1354</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1249</v>
+        <v>1220</v>
       </c>
       <c r="G14" s="3">
         <v>10</v>
@@ -15600,23 +17578,23 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1296</v>
+        <v>1267</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>191</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1297</v>
+        <v>1268</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>215</v>
@@ -15628,21 +17606,21 @@
         <v>935</v>
       </c>
       <c r="T14" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="27" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>843</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1372</v>
+        <v>1269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1354</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>1253</v>
+        <v>1224</v>
       </c>
       <c r="G15" s="3">
         <v>10</v>
@@ -15654,23 +17632,23 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" t="s">
-        <v>1197</v>
+        <v>1169</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>191</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1251</v>
+        <v>1222</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>237</v>
@@ -15682,24 +17660,24 @@
         <v>936</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="39.75" thickBot="1">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="27" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>844</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1372</v>
+        <v>1271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1354</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E16" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
@@ -15711,28 +17689,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
       <c r="M16" t="s">
-        <v>1198</v>
+        <v>1170</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1302</v>
+        <v>1273</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1303</v>
+        <v>1274</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1304</v>
+        <v>1275</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1305</v>
+        <v>1276</v>
       </c>
       <c r="R16" s="8">
         <v>43800</v>
@@ -15741,7 +17719,7 @@
         <v>935</v>
       </c>
       <c r="T16" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="39.75" thickBot="1">
@@ -15749,16 +17727,16 @@
         <v>840</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1372</v>
+        <v>1277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1354</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E17" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="F17">
         <v>150</v>
@@ -15773,28 +17751,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
       <c r="M17" t="s">
-        <v>1199</v>
+        <v>1171</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>1307</v>
+        <v>1278</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1308</v>
+        <v>1279</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1309</v>
+        <v>1280</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>1310</v>
+        <v>1281</v>
       </c>
       <c r="R17" s="8">
         <v>43800</v>
@@ -15803,7 +17781,7 @@
         <v>936</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="39.75" thickBot="1">
@@ -15811,16 +17789,16 @@
         <v>841</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1372</v>
+        <v>1282</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1354</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E18" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
@@ -15832,28 +17810,28 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
       <c r="M18" t="s">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="R18" s="8">
         <v>440010</v>
@@ -15862,24 +17840,24 @@
         <v>935</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="39.75" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="27" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>842</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1372</v>
+        <v>1287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1354</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>976</v>
       </c>
       <c r="E19" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="G19" s="3">
         <v>10</v>
@@ -15891,28 +17869,28 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K19" s="40" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N19" s="40" t="s">
         <v>1288</v>
       </c>
-      <c r="L19" s="40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>1317</v>
-      </c>
       <c r="O19" s="40" t="s">
-        <v>1318</v>
+        <v>1289</v>
       </c>
       <c r="P19" s="40" t="s">
-        <v>1319</v>
+        <v>1290</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="R19" s="41">
         <v>11221</v>
@@ -15921,18 +17899,18 @@
         <v>936</v>
       </c>
       <c r="T19" s="40" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="30.75" thickBot="1">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>843</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1373</v>
+        <v>1292</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1355</v>
       </c>
       <c r="D20" s="2"/>
       <c r="G20" s="3">
@@ -15942,22 +17920,25 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M20" t="s">
-        <v>1202</v>
+        <v>1174</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1322</v>
+        <v>1293</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>177</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1323</v>
+        <v>1294</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>1324</v>
+        <v>1295</v>
       </c>
       <c r="R20" s="8">
         <v>2000</v>
@@ -15966,21 +17947,21 @@
         <v>936</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="39.75" thickBot="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="27" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>844</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1373</v>
+        <v>1296</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1355</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1249</v>
+        <v>1220</v>
       </c>
       <c r="G21" s="3">
         <v>10</v>
@@ -15989,22 +17970,25 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M21" t="s">
-        <v>1203</v>
+        <v>1175</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>1326</v>
+        <v>1297</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>1327</v>
+        <v>1298</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="R21" s="47">
         <v>682304</v>
@@ -16013,21 +17997,21 @@
         <v>935</v>
       </c>
       <c r="T21" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="39.75" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>840</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1373</v>
+        <v>1300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1355</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1253</v>
+        <v>1224</v>
       </c>
       <c r="G22" s="3">
         <v>10</v>
@@ -16036,22 +18020,25 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M22" t="s">
-        <v>1204</v>
+        <v>1176</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1332</v>
+        <v>1303</v>
       </c>
       <c r="R22" s="8">
         <v>440010</v>
@@ -16060,18 +18047,18 @@
         <v>936</v>
       </c>
       <c r="T22" s="40" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30.75" thickBot="1">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="27" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>841</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1373</v>
+        <v>1304</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1355</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>976</v>
@@ -16083,22 +18070,25 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M23" t="s">
-        <v>1205</v>
+        <v>1177</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>1334</v>
+        <v>1305</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>1335</v>
+        <v>1306</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>1336</v>
+        <v>1307</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1337</v>
+        <v>1308</v>
       </c>
       <c r="R23" s="8">
         <v>99503</v>
@@ -16107,24 +18097,24 @@
         <v>935</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="30.75" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="27" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>842</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1373</v>
+        <v>1309</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1355</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1339</v>
+        <v>1310</v>
       </c>
       <c r="E24" t="s">
-        <v>1340</v>
+        <v>1311</v>
       </c>
       <c r="F24">
         <v>28</v>
@@ -16136,22 +18126,25 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M24" t="s">
-        <v>1206</v>
+        <v>1178</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>1341</v>
+        <v>1312</v>
       </c>
       <c r="O24" s="47" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1343</v>
+        <v>1314</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1344</v>
+        <v>1315</v>
       </c>
       <c r="R24" s="8">
         <v>60256</v>
@@ -16160,7 +18153,7 @@
         <v>936</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="30.75" thickBot="1">
@@ -16168,37 +18161,40 @@
         <v>843</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>1345</v>
+        <v>1316</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>976</v>
       </c>
       <c r="E25" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K25" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M25" t="s">
-        <v>1207</v>
+        <v>1179</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="O25" s="50" t="s">
-        <v>1347</v>
+        <v>1318</v>
       </c>
       <c r="P25" s="50" t="s">
-        <v>1348</v>
+        <v>1319</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>1349</v>
+        <v>1320</v>
       </c>
       <c r="R25" s="52">
         <v>67337</v>
@@ -16207,7 +18203,7 @@
         <v>936</v>
       </c>
       <c r="T25" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="30.75" thickBot="1">
@@ -16215,37 +18211,40 @@
         <v>844</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>1350</v>
+        <v>1321</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>976</v>
       </c>
       <c r="E26" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1267</v>
+        <v>1238</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M26" t="s">
-        <v>1208</v>
+        <v>1180</v>
       </c>
       <c r="N26" s="50" t="s">
-        <v>1351</v>
+        <v>1322</v>
       </c>
       <c r="O26" s="50" t="s">
-        <v>1352</v>
+        <v>1323</v>
       </c>
       <c r="P26" s="50" t="s">
-        <v>1353</v>
+        <v>1324</v>
       </c>
       <c r="Q26" s="50" t="s">
-        <v>1354</v>
+        <v>1325</v>
       </c>
       <c r="R26" s="52">
         <v>4000</v>
@@ -16254,7 +18253,7 @@
         <v>936</v>
       </c>
       <c r="T26" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="30.75" thickBot="1">
@@ -16262,37 +18261,40 @@
         <v>840</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>1355</v>
+        <v>1326</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>976</v>
       </c>
       <c r="E27" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M27" t="s">
-        <v>1209</v>
+        <v>1181</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>1356</v>
+        <v>1327</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="P27" s="50" t="s">
-        <v>1357</v>
+        <v>1328</v>
       </c>
       <c r="Q27" s="50" t="s">
-        <v>1358</v>
+        <v>1329</v>
       </c>
       <c r="R27" s="52">
         <v>576108</v>
@@ -16301,7 +18303,7 @@
         <v>936</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="30.75" thickBot="1">
@@ -16309,37 +18311,40 @@
         <v>841</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>1359</v>
+        <v>1330</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D28" s="50" t="s">
         <v>976</v>
       </c>
       <c r="E28" t="s">
-        <v>1340</v>
+        <v>1311</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1360</v>
+        <v>1331</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M28" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>1361</v>
+        <v>1332</v>
       </c>
       <c r="O28" s="50" t="s">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="P28" s="50" t="s">
-        <v>1363</v>
+        <v>1334</v>
       </c>
       <c r="Q28" s="50" t="s">
-        <v>1363</v>
+        <v>1334</v>
       </c>
       <c r="R28" s="52">
         <v>10010</v>
@@ -16348,42 +18353,45 @@
         <v>935</v>
       </c>
       <c r="T28" s="43" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="39.75" thickBot="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30.75" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>842</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>1364</v>
+        <v>1335</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M29" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>1365</v>
+        <v>1336</v>
       </c>
       <c r="O29" s="53" t="s">
         <v>968</v>
       </c>
       <c r="P29" s="53" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="Q29" s="53" t="s">
-        <v>1367</v>
+        <v>1338</v>
       </c>
       <c r="R29" s="54">
         <v>80121</v>
@@ -16392,42 +18400,45 @@
         <v>936</v>
       </c>
       <c r="T29" s="53" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="52.5" thickBot="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30.75" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>843</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M30" t="s">
-        <v>1212</v>
+        <v>1184</v>
       </c>
       <c r="N30" s="54" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="O30" s="53" t="s">
-        <v>1370</v>
+        <v>1341</v>
       </c>
       <c r="P30" s="54" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="Q30" s="54" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="R30" s="54">
         <v>71639</v>
@@ -16436,42 +18447,45 @@
         <v>936</v>
       </c>
       <c r="T30" s="53" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="39.75" thickBot="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30.75" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>844</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>1364</v>
+        <v>1335</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M31" t="s">
-        <v>1213</v>
+        <v>1185</v>
       </c>
       <c r="N31" s="53" t="s">
-        <v>1365</v>
+        <v>1336</v>
       </c>
       <c r="O31" s="53" t="s">
         <v>968</v>
       </c>
       <c r="P31" s="53" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="Q31" s="53" t="s">
-        <v>1367</v>
+        <v>1338</v>
       </c>
       <c r="R31" s="54">
         <v>80121</v>
@@ -16480,42 +18494,45 @@
         <v>936</v>
       </c>
       <c r="T31" s="53" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="52.5" thickBot="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="39.75" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M32" t="s">
-        <v>1214</v>
+        <v>1186</v>
       </c>
       <c r="N32" s="54" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="O32" s="53" t="s">
-        <v>1370</v>
+        <v>1341</v>
       </c>
       <c r="P32" s="54" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="Q32" s="54" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="R32" s="54">
         <v>71639</v>
@@ -16524,7 +18541,7 @@
         <v>936</v>
       </c>
       <c r="T32" s="53" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="39.75" thickBot="1">
@@ -16532,34 +18549,37 @@
         <v>80</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>1364</v>
+        <v>1335</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="I33" s="3">
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>1353</v>
       </c>
       <c r="M33" t="s">
-        <v>1215</v>
+        <v>1187</v>
       </c>
       <c r="N33" s="53" t="s">
-        <v>1365</v>
+        <v>1336</v>
       </c>
       <c r="O33" s="53" t="s">
         <v>968</v>
       </c>
       <c r="P33" s="53" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="Q33" s="53" t="s">
-        <v>1367</v>
+        <v>1338</v>
       </c>
       <c r="R33" s="54">
         <v>80121</v>
@@ -16568,7 +18588,7 @@
         <v>936</v>
       </c>
       <c r="T33" s="53" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E672600F-E594-4462-9FBC-108287299D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE515C9-4636-48DC-846F-7875179E5A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="675" windowWidth="27615" windowHeight="15075" firstSheet="5" activeTab="10" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="15" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -26,23 +26,21 @@
     <sheet name="Item list Variants" sheetId="13" r:id="rId11"/>
     <sheet name="Item List Country" sheetId="9" r:id="rId12"/>
     <sheet name="Service List (2)" sheetId="15" r:id="rId13"/>
+    <sheet name="MogozayFindCategory" sheetId="16" r:id="rId14"/>
+    <sheet name="MogozayFindCustomField" sheetId="17" r:id="rId15"/>
+    <sheet name="MogozayFINDItem" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4118" uniqueCount="1398">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4130,88 +4128,112 @@
     <t>category 100%</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0% Item_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0% Item_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100% Item_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100% Item_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100% Item_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100% Item_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100% Item_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1% Item_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99% Item_28</t>
+    <t>Sub Category 0.0</t>
+  </si>
+  <si>
+    <t>Sub Category 0.1</t>
+  </si>
+  <si>
+    <t>Sub Category 0.2</t>
+  </si>
+  <si>
+    <t>Sub Category 0.3</t>
+  </si>
+  <si>
+    <t>Description0.0</t>
+  </si>
+  <si>
+    <t>Description0.1</t>
+  </si>
+  <si>
+    <t>Description0.2</t>
+  </si>
+  <si>
+    <t>Description0.3</t>
+  </si>
+  <si>
+    <t>Item_01</t>
+  </si>
+  <si>
+    <t>Item_02</t>
+  </si>
+  <si>
+    <t>Item_07</t>
+  </si>
+  <si>
+    <t>Item_12</t>
+  </si>
+  <si>
+    <t>Item_17</t>
+  </si>
+  <si>
+    <t>Item_22</t>
+  </si>
+  <si>
+    <t>Item_27</t>
+  </si>
+  <si>
+    <t>Item_03</t>
+  </si>
+  <si>
+    <t>Item_08</t>
+  </si>
+  <si>
+    <t>Item_13</t>
+  </si>
+  <si>
+    <t>Item_18</t>
+  </si>
+  <si>
+    <t>Item_23</t>
+  </si>
+  <si>
+    <t>Item_28</t>
+  </si>
+  <si>
+    <t>Item_04</t>
+  </si>
+  <si>
+    <t>Item_05</t>
+  </si>
+  <si>
+    <t>Item_06</t>
+  </si>
+  <si>
+    <t>Item_09</t>
+  </si>
+  <si>
+    <t>Item_10</t>
+  </si>
+  <si>
+    <t>Item_11</t>
+  </si>
+  <si>
+    <t>Item_14</t>
+  </si>
+  <si>
+    <t>Item_15</t>
+  </si>
+  <si>
+    <t>Item_16</t>
+  </si>
+  <si>
+    <t>Item_19</t>
+  </si>
+  <si>
+    <t>Item_20</t>
+  </si>
+  <si>
+    <t>Item_21</t>
+  </si>
+  <si>
+    <t>Item_24</t>
+  </si>
+  <si>
+    <t>Item_25</t>
+  </si>
+  <si>
+    <t>Item_26</t>
   </si>
 </sst>
 </file>
@@ -5195,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6225,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6A9F0-19FF-4A4A-B968-F6919F139D4A}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6277,7 +6299,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1358</v>
@@ -6309,7 +6331,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1359</v>
@@ -6341,7 +6363,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1360</v>
@@ -6373,7 +6395,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1361</v>
@@ -6405,7 +6427,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>838</v>
@@ -6437,7 +6459,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>1364</v>
+        <v>1385</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1358</v>
@@ -6469,7 +6491,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1359</v>
@@ -6501,7 +6523,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1360</v>
@@ -6533,7 +6555,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1361</v>
@@ -6565,7 +6587,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>1365</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>838</v>
@@ -6597,7 +6619,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1358</v>
@@ -6629,7 +6651,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1359</v>
@@ -6661,7 +6683,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1360</v>
@@ -6693,7 +6715,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1361</v>
@@ -6725,7 +6747,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>1367</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>838</v>
@@ -6757,7 +6779,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>1368</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1358</v>
@@ -6789,7 +6811,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1359</v>
@@ -6821,7 +6843,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1360</v>
@@ -6853,7 +6875,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1361</v>
@@ -6883,7 +6905,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>1369</v>
+        <v>1393</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>838</v>
@@ -6913,7 +6935,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>1370</v>
+        <v>1394</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1358</v>
@@ -6943,7 +6965,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1359</v>
@@ -6973,7 +6995,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1360</v>
@@ -7003,7 +7025,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>1387</v>
+        <v>1395</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1361</v>
@@ -7033,7 +7055,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>1371</v>
+        <v>1396</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>838</v>
@@ -7063,7 +7085,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>1372</v>
+        <v>1397</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1358</v>
@@ -7093,7 +7115,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1359</v>
@@ -7123,7 +7145,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1360</v>
@@ -12374,6 +12396,609 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B74BE3-96A7-4CBD-BE3E-E572D33D5452}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65FFF2-EDFC-4945-86DE-9724D15090D8}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887753B3-0C08-42C6-8907-1F5DB7650420}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="34" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F2" s="8">
+        <v>100</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F3" s="8">
+        <v>150.5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2100.5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
@@ -12482,8 +13107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15939,8 +16564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C85ADEE-78B8-4754-AD72-57DD5A59E6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DBE00-FB96-4D11-A8ED-04A1A83133AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="15" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
-    <sheet name="Language" sheetId="12" r:id="rId2"/>
-    <sheet name="Admin Category" sheetId="1" r:id="rId3"/>
-    <sheet name="Admin Delivery " sheetId="2" r:id="rId4"/>
-    <sheet name="Merchant Delivery " sheetId="3" r:id="rId5"/>
-    <sheet name="Seller Name" sheetId="4" r:id="rId6"/>
-    <sheet name="Buyer Name" sheetId="5" r:id="rId7"/>
-    <sheet name="Service List" sheetId="14" r:id="rId8"/>
-    <sheet name="Custom Fields" sheetId="6" r:id="rId9"/>
-    <sheet name="AllCustomField" sheetId="7" r:id="rId10"/>
-    <sheet name="Item list Variants" sheetId="13" r:id="rId11"/>
-    <sheet name="Item List Country" sheetId="9" r:id="rId12"/>
-    <sheet name="Service List (2)" sheetId="15" r:id="rId13"/>
-    <sheet name="MogozayFindCategory" sheetId="16" r:id="rId14"/>
-    <sheet name="MogozayFindCustomField" sheetId="17" r:id="rId15"/>
-    <sheet name="MogozayFINDItem" sheetId="18" r:id="rId16"/>
+    <sheet name="Login" sheetId="19" r:id="rId2"/>
+    <sheet name="Language" sheetId="12" r:id="rId3"/>
+    <sheet name="Admin Category" sheetId="1" r:id="rId4"/>
+    <sheet name="Admin Delivery " sheetId="2" r:id="rId5"/>
+    <sheet name="Merchant Delivery " sheetId="3" r:id="rId6"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId7"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId8"/>
+    <sheet name="Service List" sheetId="14" r:id="rId9"/>
+    <sheet name="Custom Fields" sheetId="6" r:id="rId10"/>
+    <sheet name="AllCustomField" sheetId="7" r:id="rId11"/>
+    <sheet name="Item list Variants" sheetId="13" r:id="rId12"/>
+    <sheet name="Item List Country" sheetId="9" r:id="rId13"/>
+    <sheet name="Service List (2)" sheetId="15" r:id="rId14"/>
+    <sheet name="MogozayFindCategory" sheetId="16" r:id="rId15"/>
+    <sheet name="MogozayFindCustomField" sheetId="17" r:id="rId16"/>
+    <sheet name="MogozayFINDItem" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1407">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4246,6 +4247,21 @@
   </si>
   <si>
     <t>category100</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>01seller</t>
+  </si>
+  <si>
+    <t>welcome8</t>
+  </si>
+  <si>
+    <t>buyer001</t>
   </si>
 </sst>
 </file>
@@ -4934,13 +4950,13 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="30" customWidth="1"/>
     <col min="4" max="5" width="17.140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="30" customWidth="1"/>
@@ -5429,6 +5445,2466 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
+  <dimension ref="A2:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="64.5">
+      <c r="A2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="39">
+      <c r="A3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="64.5">
+      <c r="A4" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="77.25">
+      <c r="A5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="77.25">
+      <c r="A6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="77.25">
+      <c r="A7" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="77.25">
+      <c r="A8" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="77.25">
+      <c r="A9" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="77.25">
+      <c r="A10" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="77.25">
+      <c r="A11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="77.25">
+      <c r="A12" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="77.25">
+      <c r="A13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="77.25">
+      <c r="A14" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="39">
+      <c r="A15" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="39">
+      <c r="A16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="51.75">
+      <c r="A17" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="51.75">
+      <c r="A18" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="39">
+      <c r="A21" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" ht="26.25">
+      <c r="A22" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="26.25">
+      <c r="A23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="26.25">
+      <c r="A24" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" ht="26.25">
+      <c r="A25" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" ht="26.25">
+      <c r="A26" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="26.25">
+      <c r="A27" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="26.25">
+      <c r="A28" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" ht="26.25">
+      <c r="A29" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="26.25">
+      <c r="A30" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" ht="26.25">
+      <c r="A31" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="1:26" ht="39">
+      <c r="A33" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="1:26" ht="26.25">
+      <c r="A34" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="1:26" ht="26.25">
+      <c r="A35" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:26" ht="26.25">
+      <c r="A36" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" ht="26.25">
+      <c r="A37" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" ht="26.25">
+      <c r="A38" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" ht="26.25">
+      <c r="A39" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" ht="26.25">
+      <c r="A40" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" ht="26.25">
+      <c r="A41" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" ht="26.25">
+      <c r="A42" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="1:26" ht="26.25">
+      <c r="A43" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" ht="26.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" ht="26.25">
+      <c r="A48" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -6458,7 +8934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6A9F0-19FF-4A4A-B968-F6919F139D4A}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -7514,7 +9990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
   <dimension ref="A1:N79"/>
   <sheetViews>
@@ -10804,7 +13280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB165E2-AC50-4D96-ACE9-39C43ED2D7C9}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -12611,7 +15087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B74BE3-96A7-4CBD-BE3E-E572D33D5452}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -12759,7 +15235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65FFF2-EDFC-4945-86DE-9724D15090D8}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -13030,12 +15506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887753B3-0C08-42C6-8907-1F5DB7650420}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13210,7 +15686,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>1359</v>
       </c>
@@ -13242,7 +15718,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>1360</v>
       </c>
@@ -13274,7 +15750,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>1361</v>
       </c>
@@ -13306,7 +15782,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>1362</v>
       </c>
@@ -13344,6 +15820,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9AD890-A759-4B4A-87CF-CB4018029CA7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -13447,7 +15966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
@@ -14590,7 +17109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F829671-6FD4-4582-BD2D-2331AB94B0C3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
@@ -15457,7 +17976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -15759,7 +18278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0C2BDA-D892-4B24-9F47-C0E0D73BE072}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -16905,7 +19424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -17775,7 +20294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591EF17A-6374-411F-B9F2-D29C4B89EBC1}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -19580,2464 +22099,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
-  <dimension ref="A2:Z59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="64.5">
-      <c r="A2" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="39">
-      <c r="A3" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="64.5">
-      <c r="A4" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="77.25">
-      <c r="A5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="77.25">
-      <c r="A6" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="77.25">
-      <c r="A7" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="77.25">
-      <c r="A8" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="77.25">
-      <c r="A9" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="77.25">
-      <c r="A10" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="77.25">
-      <c r="A11" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="77.25">
-      <c r="A12" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="77.25">
-      <c r="A13" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" ht="77.25">
-      <c r="A14" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" ht="39">
-      <c r="A15" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" ht="39">
-      <c r="A16" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" ht="51.75">
-      <c r="A17" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" ht="51.75">
-      <c r="A18" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" ht="39">
-      <c r="A21" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" ht="26.25">
-      <c r="A22" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="26.25">
-      <c r="A23" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="26.25">
-      <c r="A24" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" ht="26.25">
-      <c r="A25" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="26.25">
-      <c r="A26" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.25">
-      <c r="A27" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.25">
-      <c r="A28" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" ht="26.25">
-      <c r="A29" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="26.25">
-      <c r="A30" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" ht="26.25">
-      <c r="A31" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" ht="39">
-      <c r="A33" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" ht="26.25">
-      <c r="A34" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:26" ht="26.25">
-      <c r="A35" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" ht="26.25">
-      <c r="A36" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" ht="26.25">
-      <c r="A37" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" ht="26.25">
-      <c r="A38" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" ht="26.25">
-      <c r="A39" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" ht="26.25">
-      <c r="A40" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" ht="26.25">
-      <c r="A41" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" ht="26.25">
-      <c r="A42" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" ht="26.25">
-      <c r="A43" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" ht="26.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" ht="26.25">
-      <c r="A48" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C85ADEE-78B8-4754-AD72-57DD5A59E6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D4A7D-8B07-4A9C-A588-F8C96BB6913C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="15" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="28680" yWindow="1215" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="5" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -18,17 +18,25 @@
     <sheet name="Admin Category" sheetId="1" r:id="rId3"/>
     <sheet name="Admin Delivery " sheetId="2" r:id="rId4"/>
     <sheet name="Merchant Delivery " sheetId="3" r:id="rId5"/>
-    <sheet name="Seller Name" sheetId="4" r:id="rId6"/>
-    <sheet name="Buyer Name" sheetId="5" r:id="rId7"/>
-    <sheet name="Service List" sheetId="14" r:id="rId8"/>
-    <sheet name="Custom Fields" sheetId="6" r:id="rId9"/>
-    <sheet name="AllCustomField" sheetId="7" r:id="rId10"/>
-    <sheet name="Item list Variants" sheetId="13" r:id="rId11"/>
-    <sheet name="Item List Country" sheetId="9" r:id="rId12"/>
-    <sheet name="Service List (2)" sheetId="15" r:id="rId13"/>
-    <sheet name="MogozayFindCategory" sheetId="16" r:id="rId14"/>
-    <sheet name="MogozayFindCustomField" sheetId="17" r:id="rId15"/>
-    <sheet name="MogozayFINDItem" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId6"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId7"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId8"/>
+    <sheet name="Service List" sheetId="14" r:id="rId9"/>
+    <sheet name="Custom Fields" sheetId="6" r:id="rId10"/>
+    <sheet name="AllCustomField" sheetId="7" r:id="rId11"/>
+    <sheet name="Item list Variants" sheetId="13" r:id="rId12"/>
+    <sheet name="Item List Country" sheetId="9" r:id="rId13"/>
+    <sheet name="Service List (2)" sheetId="15" r:id="rId14"/>
+    <sheet name="MogozayFindCategory" sheetId="16" r:id="rId15"/>
+    <sheet name="MogozayFindCustomField" sheetId="17" r:id="rId16"/>
+    <sheet name="MogozayFINDItem" sheetId="18" r:id="rId17"/>
+    <sheet name="SingleSelCheckoutSingleItem-Off" sheetId="19" r:id="rId18"/>
+    <sheet name="SingleSelCheckoutMultiItem-Off" sheetId="21" r:id="rId19"/>
+    <sheet name="MultiSelCheckoutMulitItem-Off" sheetId="22" r:id="rId20"/>
+    <sheet name="SingleCheckoutSingleItem-On" sheetId="23" r:id="rId21"/>
+    <sheet name="SingleSelCheckoutMultiItem-On" sheetId="24" r:id="rId22"/>
+    <sheet name="MultiSelCheckoutMulitItem-On" sheetId="25" r:id="rId23"/>
+    <sheet name="SearchResult_Del2" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="1441">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4246,6 +4254,123 @@
   </si>
   <si>
     <t>category100</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>Item no variants</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Omise</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>Item with variants</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>var3</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>itemName1</t>
+  </si>
+  <si>
+    <t>itemName2</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>variant1</t>
+  </si>
+  <si>
+    <t>variant2</t>
+  </si>
+  <si>
+    <t>itemName3</t>
+  </si>
+  <si>
+    <t>itemName4</t>
+  </si>
+  <si>
+    <t>variant3</t>
+  </si>
+  <si>
+    <t>variant4</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>itemDescription</t>
+  </si>
+  <si>
+    <t>itemDescriptionPartial</t>
+  </si>
+  <si>
+    <t>Item no Variants</t>
+  </si>
+  <si>
+    <t>Textfield</t>
+  </si>
+  <si>
+    <t>Item no</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>itemNamePartial</t>
+  </si>
+  <si>
+    <t>Item no variants - Seller 01</t>
+  </si>
+  <si>
+    <t>Item with variants - Seller 01</t>
+  </si>
+  <si>
+    <t>Item no variants - Seller 02</t>
+  </si>
+  <si>
+    <t>Item with variants - Seller 02</t>
+  </si>
+  <si>
+    <t>delivery1</t>
+  </si>
+  <si>
+    <t>delivery2</t>
   </si>
 </sst>
 </file>
@@ -5429,6 +5554,2466 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
+  <dimension ref="A2:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="64.5">
+      <c r="A2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="39">
+      <c r="A3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="64.5">
+      <c r="A4" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="77.25">
+      <c r="A5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="77.25">
+      <c r="A6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="77.25">
+      <c r="A7" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="77.25">
+      <c r="A8" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="77.25">
+      <c r="A9" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="77.25">
+      <c r="A10" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="77.25">
+      <c r="A11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="77.25">
+      <c r="A12" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="77.25">
+      <c r="A13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="77.25">
+      <c r="A14" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="39">
+      <c r="A15" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="39">
+      <c r="A16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="51.75">
+      <c r="A17" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="51.75">
+      <c r="A18" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="39">
+      <c r="A21" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" ht="26.25">
+      <c r="A22" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="26.25">
+      <c r="A23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="26.25">
+      <c r="A24" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" ht="26.25">
+      <c r="A25" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" ht="26.25">
+      <c r="A26" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="26.25">
+      <c r="A27" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="26.25">
+      <c r="A28" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" ht="26.25">
+      <c r="A29" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="26.25">
+      <c r="A30" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" ht="26.25">
+      <c r="A31" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="1:26" ht="39">
+      <c r="A33" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="1:26" ht="26.25">
+      <c r="A34" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="1:26" ht="26.25">
+      <c r="A35" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:26" ht="26.25">
+      <c r="A36" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" ht="26.25">
+      <c r="A37" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" ht="26.25">
+      <c r="A38" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" ht="26.25">
+      <c r="A39" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" ht="26.25">
+      <c r="A40" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" ht="26.25">
+      <c r="A41" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" ht="26.25">
+      <c r="A42" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="1:26" ht="26.25">
+      <c r="A43" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" ht="26.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" ht="26.25">
+      <c r="A48" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -6458,7 +9043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6A9F0-19FF-4A4A-B968-F6919F139D4A}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -7514,7 +10099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
   <dimension ref="A1:N79"/>
   <sheetViews>
@@ -10804,7 +13389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB165E2-AC50-4D96-ACE9-39C43ED2D7C9}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -12611,7 +15196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B74BE3-96A7-4CBD-BE3E-E572D33D5452}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -12759,7 +15344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65FFF2-EDFC-4945-86DE-9724D15090D8}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -13030,11 +15615,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887753B3-0C08-42C6-8907-1F5DB7650420}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -13210,7 +15795,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>1359</v>
       </c>
@@ -13242,7 +15827,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>1360</v>
       </c>
@@ -13274,7 +15859,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>1361</v>
       </c>
@@ -13306,7 +15891,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>1362</v>
       </c>
@@ -13336,6 +15921,691 @@
       </c>
       <c r="J9" s="37" t="s">
         <v>1004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118289D8-3407-4690-947F-F26AFE5A21FB}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="46">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>931</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>971</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF32F9F-C383-4D89-A381-B54A6C64DBE8}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="46">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>971</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" t="s">
+        <v>930</v>
+      </c>
+      <c r="D5" t="s">
+        <v>930</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>930</v>
+      </c>
+      <c r="D6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D7" t="s">
+        <v>931</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C8" t="s">
+        <v>930</v>
+      </c>
+      <c r="D8" t="s">
+        <v>931</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>971</v>
+      </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" t="s">
+        <v>931</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C10" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
+        <v>931</v>
+      </c>
+      <c r="D11" t="s">
+        <v>931</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" t="s">
+        <v>931</v>
+      </c>
+      <c r="D12" t="s">
+        <v>931</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>971</v>
+      </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>746</v>
+      </c>
+      <c r="C13" t="s">
+        <v>931</v>
+      </c>
+      <c r="D13" t="s">
+        <v>931</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -13444,6 +16714,2065 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9F5EA-9482-4BA1-935F-B7CC8B786DBC}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H2" t="s">
+        <v>930</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F3" t="s">
+        <v>930</v>
+      </c>
+      <c r="G3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="46">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>971</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4" t="s">
+        <v>930</v>
+      </c>
+      <c r="G4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G5" t="s">
+        <v>930</v>
+      </c>
+      <c r="H5" t="s">
+        <v>931</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="46">
+        <v>1</v>
+      </c>
+      <c r="N5" s="46">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E6" t="s">
+        <v>930</v>
+      </c>
+      <c r="F6" t="s">
+        <v>931</v>
+      </c>
+      <c r="G6" t="s">
+        <v>930</v>
+      </c>
+      <c r="H6" t="s">
+        <v>931</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>751</v>
+      </c>
+      <c r="E7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F7" t="s">
+        <v>931</v>
+      </c>
+      <c r="G7" t="s">
+        <v>930</v>
+      </c>
+      <c r="H7" t="s">
+        <v>931</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="46">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>971</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E8" t="s">
+        <v>930</v>
+      </c>
+      <c r="F8" t="s">
+        <v>931</v>
+      </c>
+      <c r="G8" t="s">
+        <v>930</v>
+      </c>
+      <c r="H8" t="s">
+        <v>931</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D9" t="s">
+        <v>751</v>
+      </c>
+      <c r="E9" t="s">
+        <v>930</v>
+      </c>
+      <c r="F9" t="s">
+        <v>931</v>
+      </c>
+      <c r="G9" t="s">
+        <v>931</v>
+      </c>
+      <c r="H9" t="s">
+        <v>931</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" t="s">
+        <v>930</v>
+      </c>
+      <c r="F10" t="s">
+        <v>931</v>
+      </c>
+      <c r="G10" t="s">
+        <v>931</v>
+      </c>
+      <c r="H10" t="s">
+        <v>931</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="46">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>971</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E11" t="s">
+        <v>930</v>
+      </c>
+      <c r="F11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G11" t="s">
+        <v>931</v>
+      </c>
+      <c r="H11" t="s">
+        <v>931</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE95A0E-86C8-4C6C-B1D6-5F558F5134D3}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="46">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>971</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>930</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>931</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>971</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5F8C97-24E7-4ECA-A40A-635A281CDA76}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="46">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>971</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" t="s">
+        <v>930</v>
+      </c>
+      <c r="D5" t="s">
+        <v>930</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>930</v>
+      </c>
+      <c r="D6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D7" t="s">
+        <v>931</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C8" t="s">
+        <v>930</v>
+      </c>
+      <c r="D8" t="s">
+        <v>931</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>971</v>
+      </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" t="s">
+        <v>931</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C10" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
+        <v>931</v>
+      </c>
+      <c r="D11" t="s">
+        <v>931</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" t="s">
+        <v>931</v>
+      </c>
+      <c r="D12" t="s">
+        <v>931</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>971</v>
+      </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>746</v>
+      </c>
+      <c r="C13" t="s">
+        <v>931</v>
+      </c>
+      <c r="D13" t="s">
+        <v>931</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775A7626-CF59-4409-98C9-C9DFF1D3C9B0}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H2" t="s">
+        <v>930</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="46">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F3" t="s">
+        <v>930</v>
+      </c>
+      <c r="G3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4" t="s">
+        <v>930</v>
+      </c>
+      <c r="G4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5" t="s">
+        <v>930</v>
+      </c>
+      <c r="G5" t="s">
+        <v>930</v>
+      </c>
+      <c r="H5" t="s">
+        <v>930</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>971</v>
+      </c>
+      <c r="O5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E6" t="s">
+        <v>930</v>
+      </c>
+      <c r="F6" t="s">
+        <v>930</v>
+      </c>
+      <c r="G6" t="s">
+        <v>930</v>
+      </c>
+      <c r="H6" t="s">
+        <v>930</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F7" t="s">
+        <v>931</v>
+      </c>
+      <c r="G7" t="s">
+        <v>931</v>
+      </c>
+      <c r="H7" t="s">
+        <v>931</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="46">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E8" t="s">
+        <v>931</v>
+      </c>
+      <c r="F8" t="s">
+        <v>931</v>
+      </c>
+      <c r="G8" t="s">
+        <v>931</v>
+      </c>
+      <c r="H8" t="s">
+        <v>931</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E9" t="s">
+        <v>931</v>
+      </c>
+      <c r="F9" t="s">
+        <v>931</v>
+      </c>
+      <c r="G9" t="s">
+        <v>931</v>
+      </c>
+      <c r="H9" t="s">
+        <v>931</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E10" t="s">
+        <v>931</v>
+      </c>
+      <c r="F10" t="s">
+        <v>931</v>
+      </c>
+      <c r="G10" t="s">
+        <v>931</v>
+      </c>
+      <c r="H10" t="s">
+        <v>931</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>971</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E11" t="s">
+        <v>931</v>
+      </c>
+      <c r="F11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G11" t="s">
+        <v>931</v>
+      </c>
+      <c r="H11" t="s">
+        <v>931</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E12" t="s">
+        <v>930</v>
+      </c>
+      <c r="F12" t="s">
+        <v>931</v>
+      </c>
+      <c r="G12" t="s">
+        <v>930</v>
+      </c>
+      <c r="H12" t="s">
+        <v>931</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="46">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E13" t="s">
+        <v>930</v>
+      </c>
+      <c r="F13" t="s">
+        <v>931</v>
+      </c>
+      <c r="G13" t="s">
+        <v>930</v>
+      </c>
+      <c r="H13" t="s">
+        <v>931</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E14" t="s">
+        <v>930</v>
+      </c>
+      <c r="F14" t="s">
+        <v>931</v>
+      </c>
+      <c r="G14" t="s">
+        <v>930</v>
+      </c>
+      <c r="H14" t="s">
+        <v>931</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>930</v>
+      </c>
+      <c r="F15" t="s">
+        <v>931</v>
+      </c>
+      <c r="G15" t="s">
+        <v>930</v>
+      </c>
+      <c r="H15" t="s">
+        <v>931</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>971</v>
+      </c>
+      <c r="O15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>930</v>
+      </c>
+      <c r="F16" t="s">
+        <v>931</v>
+      </c>
+      <c r="G16" t="s">
+        <v>930</v>
+      </c>
+      <c r="H16" t="s">
+        <v>931</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O16">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4851E9-A164-41C9-AD11-052D30BE54ED}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15461,8 +20790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15760,6 +21089,306 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427F9AE9-FF30-43F9-957C-408163359D99}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="39">
+      <c r="A15" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25">
+      <c r="A16" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="102">
+      <c r="A17" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="191.25">
+      <c r="A18" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0C2BDA-D892-4B24-9F47-C0E0D73BE072}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -16905,7 +22534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -17775,7 +23404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591EF17A-6374-411F-B9F2-D29C4B89EBC1}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -19580,2464 +25209,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
-  <dimension ref="A2:Z59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="64.5">
-      <c r="A2" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="39">
-      <c r="A3" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="64.5">
-      <c r="A4" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="77.25">
-      <c r="A5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="77.25">
-      <c r="A6" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="77.25">
-      <c r="A7" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="77.25">
-      <c r="A8" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="77.25">
-      <c r="A9" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="77.25">
-      <c r="A10" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="77.25">
-      <c r="A11" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="77.25">
-      <c r="A12" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="77.25">
-      <c r="A13" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" ht="77.25">
-      <c r="A14" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" ht="39">
-      <c r="A15" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" ht="39">
-      <c r="A16" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" ht="51.75">
-      <c r="A17" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" ht="51.75">
-      <c r="A18" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" ht="39">
-      <c r="A21" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" ht="26.25">
-      <c r="A22" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="26.25">
-      <c r="A23" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="26.25">
-      <c r="A24" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" ht="26.25">
-      <c r="A25" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="26.25">
-      <c r="A26" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.25">
-      <c r="A27" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.25">
-      <c r="A28" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" ht="26.25">
-      <c r="A29" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="26.25">
-      <c r="A30" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" ht="26.25">
-      <c r="A31" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" ht="39">
-      <c r="A33" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" ht="26.25">
-      <c r="A34" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:26" ht="26.25">
-      <c r="A35" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" ht="26.25">
-      <c r="A36" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" ht="26.25">
-      <c r="A37" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" ht="26.25">
-      <c r="A38" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" ht="26.25">
-      <c r="A39" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" ht="26.25">
-      <c r="A40" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" ht="26.25">
-      <c r="A41" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" ht="26.25">
-      <c r="A42" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" ht="26.25">
-      <c r="A43" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" ht="26.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" ht="26.25">
-      <c r="A48" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DBE00-FB96-4D11-A8ED-04A1A83133AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEBD524-87A3-446C-B19A-6886D487E133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="1404">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4141,33 +4141,6 @@
     <t>C:\\Katalon\\Core\\Images\\LogoLayout\\coverimage1.jpg</t>
   </si>
   <si>
-    <t>0813BP1</t>
-  </si>
-  <si>
-    <t>0813ST1</t>
-  </si>
-  <si>
-    <t>0813SB1</t>
-  </si>
-  <si>
-    <t>0813SB2</t>
-  </si>
-  <si>
-    <t>0813SB3</t>
-  </si>
-  <si>
-    <t>0813SB4</t>
-  </si>
-  <si>
-    <t>0813SB5</t>
-  </si>
-  <si>
-    <t>0813SB6</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
     <t>Staging</t>
   </si>
   <si>
@@ -4262,6 +4235,24 @@
   </si>
   <si>
     <t>buyer001</t>
+  </si>
+  <si>
+    <t>0914b2c1</t>
+  </si>
+  <si>
+    <t>0914b2c2</t>
+  </si>
+  <si>
+    <t>0914b2c3</t>
+  </si>
+  <si>
+    <t>0914b2c4</t>
+  </si>
+  <si>
+    <t>0914b2b1</t>
+  </si>
+  <si>
+    <t>0914b2b2</t>
   </si>
 </sst>
 </file>
@@ -4947,10 +4938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5038,13 +5029,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1366</v>
+        <v>1398</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>963</v>
@@ -5059,7 +5050,7 @@
         <v>966</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>1366</v>
+        <v>1398</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>967</v>
@@ -5088,13 +5079,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1367</v>
+        <v>1399</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>963</v>
@@ -5109,7 +5100,7 @@
         <v>966</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>1367</v>
+        <v>1399</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>967</v>
@@ -5124,7 +5115,7 @@
         <v>1365</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="R3" s="30" t="s">
         <v>979</v>
@@ -5138,13 +5129,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1368</v>
+        <v>1400</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>963</v>
@@ -5159,7 +5150,7 @@
         <v>966</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>1368</v>
+        <v>1400</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>967</v>
@@ -5188,13 +5179,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1369</v>
+        <v>1401</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>963</v>
@@ -5209,7 +5200,7 @@
         <v>966</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>1369</v>
+        <v>1401</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>967</v>
@@ -5238,13 +5229,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>963</v>
@@ -5259,7 +5250,7 @@
         <v>966</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>967</v>
@@ -5288,13 +5279,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="30" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>971</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1371</v>
+        <v>1403</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>963</v>
@@ -5309,7 +5300,7 @@
         <v>966</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>1371</v>
+        <v>1403</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>967</v>
@@ -5333,106 +5324,6 @@
         <v>996</v>
       </c>
       <c r="T7" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="30" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>971</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>964</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>966</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>1372</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>967</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>1364</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>1363</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>979</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>996</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="30" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>971</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>964</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>966</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>1373</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>967</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>1364</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>1363</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>979</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>996</v>
-      </c>
-      <c r="T9" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8993,7 +8884,7 @@
         <v>1331</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C2" t="s">
         <v>1098</v>
@@ -9057,7 +8948,7 @@
         <v>1338</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C4" t="s">
         <v>1100</v>
@@ -9089,7 +8980,7 @@
         <v>1344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C5" t="s">
         <v>1101</v>
@@ -9153,7 +9044,7 @@
         <v>1346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C7" t="s">
         <v>1103</v>
@@ -9217,7 +9108,7 @@
         <v>1339</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C9" t="s">
         <v>1105</v>
@@ -9249,7 +9140,7 @@
         <v>1347</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C10" t="s">
         <v>1106</v>
@@ -9313,7 +9204,7 @@
         <v>1349</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C12" t="s">
         <v>1108</v>
@@ -9377,7 +9268,7 @@
         <v>1340</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C14" t="s">
         <v>1110</v>
@@ -9409,7 +9300,7 @@
         <v>1350</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C15" t="s">
         <v>1111</v>
@@ -9473,7 +9364,7 @@
         <v>1352</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C17" t="s">
         <v>1113</v>
@@ -9537,7 +9428,7 @@
         <v>1341</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C19" t="s">
         <v>1115</v>
@@ -9569,7 +9460,7 @@
         <v>1353</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C20" t="s">
         <v>1116</v>
@@ -9629,7 +9520,7 @@
         <v>1355</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C22" t="s">
         <v>1118</v>
@@ -9689,7 +9580,7 @@
         <v>1342</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C24" t="s">
         <v>1120</v>
@@ -9719,7 +9610,7 @@
         <v>1356</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C25" t="s">
         <v>1121</v>
@@ -9779,7 +9670,7 @@
         <v>1358</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C27" t="s">
         <v>1123</v>
@@ -9839,7 +9730,7 @@
         <v>1343</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C29" t="s">
         <v>1125</v>
@@ -15823,7 +15714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9AD890-A759-4B4A-87CF-CB4018029CA7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -15835,26 +15726,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="B1" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="B2" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="B3" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -18364,7 +18255,7 @@
         <v>159</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>576</v>
@@ -19485,7 +19376,7 @@
         <v>1032</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>
@@ -19494,7 +19385,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>598</v>
@@ -19520,7 +19411,7 @@
         <v>1033</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -19555,7 +19446,7 @@
         <v>1034</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>
@@ -19590,7 +19481,7 @@
         <v>1035</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>283</v>
@@ -19625,7 +19516,7 @@
         <v>1036</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>285</v>
@@ -19660,7 +19551,7 @@
         <v>1037</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>290</v>
@@ -19695,7 +19586,7 @@
         <v>1038</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>295</v>
@@ -19730,7 +19621,7 @@
         <v>1039</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>297</v>
@@ -19765,7 +19656,7 @@
         <v>1040</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>298</v>
@@ -19800,7 +19691,7 @@
         <v>1041</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>300</v>
@@ -19835,7 +19726,7 @@
         <v>1042</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>302</v>
@@ -19870,7 +19761,7 @@
         <v>1043</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>304</v>
@@ -19905,7 +19796,7 @@
         <v>1044</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>306</v>
@@ -19940,7 +19831,7 @@
         <v>1045</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>308</v>
@@ -19975,7 +19866,7 @@
         <v>1046</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>310</v>
@@ -20010,7 +19901,7 @@
         <v>1047</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>312</v>
@@ -20045,7 +19936,7 @@
         <v>1048</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>314</v>
@@ -20080,7 +19971,7 @@
         <v>1049</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>316</v>
@@ -20115,7 +20006,7 @@
         <v>1050</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>318</v>
@@ -20150,7 +20041,7 @@
         <v>1051</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>321</v>
@@ -20185,7 +20076,7 @@
         <v>1052</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>323</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC1F62-CE86-498F-98A2-E2B5AA882D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A7687-FBAC-4D1E-8A4A-BE4454ED3B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1785" windowWidth="21600" windowHeight="11115" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="28680" yWindow="1215" windowWidth="20730" windowHeight="11760" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1381">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4085,9 +4085,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>arcadierteam@gmail.com</t>
-  </si>
-  <si>
     <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo1.jpg</t>
   </si>
   <si>
@@ -4182,6 +4179,12 @@
   </si>
   <si>
     <t>0723OMP</t>
+  </si>
+  <si>
+    <t>arcqatester01@gmail.com</t>
+  </si>
+  <si>
+    <t>09296monthsscale01</t>
   </si>
 </sst>
 </file>
@@ -4866,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4955,13 +4958,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="30" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>976</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>968</v>
@@ -4976,25 +4979,25 @@
         <v>971</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>972</v>
       </c>
       <c r="N2" s="32" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>1347</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>1349</v>
-      </c>
       <c r="Q2" s="33" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="S2" s="30" t="s">
         <v>1000</v>
@@ -5006,8 +5009,11 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{96F17C4C-075C-47DF-8309-62D10E27B300}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11520,7 +11526,7 @@
         <v>1010</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M20" t="s">
         <v>1173</v>
@@ -11570,7 +11576,7 @@
         <v>1010</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M21" t="s">
         <v>1174</v>
@@ -11620,7 +11626,7 @@
         <v>1237</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M22" t="s">
         <v>1175</v>
@@ -11670,7 +11676,7 @@
         <v>1010</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M23" t="s">
         <v>1176</v>
@@ -11726,7 +11732,7 @@
         <v>1010</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M24" t="s">
         <v>1177</v>
@@ -11776,7 +11782,7 @@
         <v>1010</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M25" t="s">
         <v>1178</v>
@@ -11826,7 +11832,7 @@
         <v>1237</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M26" t="s">
         <v>1179</v>
@@ -11876,7 +11882,7 @@
         <v>1010</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M27" t="s">
         <v>1180</v>
@@ -11926,7 +11932,7 @@
         <v>1330</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M28" t="s">
         <v>1181</v>
@@ -11973,7 +11979,7 @@
         <v>1010</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M29" t="s">
         <v>1182</v>
@@ -12020,7 +12026,7 @@
         <v>1010</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M30" t="s">
         <v>1183</v>
@@ -12067,7 +12073,7 @@
         <v>1010</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M31" t="s">
         <v>1184</v>
@@ -12114,7 +12120,7 @@
         <v>1010</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M32" t="s">
         <v>1185</v>
@@ -12161,7 +12167,7 @@
         <v>1010</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M33" t="s">
         <v>1186</v>
@@ -14683,7 +14689,7 @@
         <v>1067</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>161</v>
@@ -14730,7 +14736,7 @@
         <v>1068</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>168</v>
@@ -14777,7 +14783,7 @@
         <v>1069</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>173</v>
@@ -14822,7 +14828,7 @@
         <v>1070</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>178</v>
@@ -14869,7 +14875,7 @@
         <v>1071</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>185</v>
@@ -14916,7 +14922,7 @@
         <v>1072</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>192</v>
@@ -14963,7 +14969,7 @@
         <v>1073</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>198</v>
@@ -15010,7 +15016,7 @@
         <v>1074</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>203</v>
@@ -15057,7 +15063,7 @@
         <v>1075</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>208</v>
@@ -15104,7 +15110,7 @@
         <v>1076</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>212</v>
@@ -15151,7 +15157,7 @@
         <v>1077</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>217</v>
@@ -15198,7 +15204,7 @@
         <v>1078</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>222</v>
@@ -15245,7 +15251,7 @@
         <v>1079</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>227</v>
@@ -15292,7 +15298,7 @@
         <v>1080</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>232</v>
@@ -15339,7 +15345,7 @@
         <v>1081</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>238</v>
@@ -15386,7 +15392,7 @@
         <v>1082</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>243</v>
@@ -15433,7 +15439,7 @@
         <v>1083</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>248</v>
@@ -15480,7 +15486,7 @@
         <v>1084</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>253</v>
@@ -15525,7 +15531,7 @@
         <v>1085</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>257</v>
@@ -15570,7 +15576,7 @@
         <v>1086</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>264</v>
@@ -15615,7 +15621,7 @@
         <v>1087</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>269</v>
@@ -15660,7 +15666,7 @@
         <v>1088</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>275</v>
@@ -15815,7 +15821,7 @@
         <v>1067</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>281</v>
@@ -16718,7 +16724,7 @@
         <v>1206</v>
       </c>
       <c r="C2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1207</v>
@@ -16774,7 +16780,7 @@
         <v>1212</v>
       </c>
       <c r="C3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1213</v>
@@ -16828,7 +16834,7 @@
         <v>1218</v>
       </c>
       <c r="C4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>1219</v>
@@ -16882,7 +16888,7 @@
         <v>1222</v>
       </c>
       <c r="C5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1223</v>
@@ -16936,7 +16942,7 @@
         <v>1228</v>
       </c>
       <c r="C6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>976</v>
@@ -16993,7 +16999,7 @@
         <v>1236</v>
       </c>
       <c r="C7" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>976</v>
@@ -17053,7 +17059,7 @@
         <v>1240</v>
       </c>
       <c r="C8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>976</v>
@@ -17110,7 +17116,7 @@
         <v>1244</v>
       </c>
       <c r="C9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>976</v>
@@ -17170,7 +17176,7 @@
         <v>1249</v>
       </c>
       <c r="C10" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>976</v>
@@ -17227,7 +17233,7 @@
         <v>1253</v>
       </c>
       <c r="C11" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>976</v>
@@ -17287,7 +17293,7 @@
         <v>1257</v>
       </c>
       <c r="C12" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>1207</v>
@@ -17341,7 +17347,7 @@
         <v>1263</v>
       </c>
       <c r="C13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>1213</v>
@@ -17395,7 +17401,7 @@
         <v>1265</v>
       </c>
       <c r="C14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1219</v>
@@ -17449,7 +17455,7 @@
         <v>1268</v>
       </c>
       <c r="C15" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1223</v>
@@ -17503,7 +17509,7 @@
         <v>1270</v>
       </c>
       <c r="C16" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>976</v>
@@ -17562,7 +17568,7 @@
         <v>1276</v>
       </c>
       <c r="C17" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>976</v>
@@ -17624,7 +17630,7 @@
         <v>1281</v>
       </c>
       <c r="C18" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>976</v>
@@ -17683,7 +17689,7 @@
         <v>1286</v>
       </c>
       <c r="C19" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>976</v>
@@ -17742,7 +17748,7 @@
         <v>1291</v>
       </c>
       <c r="C20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D20" s="2"/>
       <c r="G20" s="3">
@@ -17755,7 +17761,7 @@
         <v>1010</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M20" t="s">
         <v>1173</v>
@@ -17790,7 +17796,7 @@
         <v>1295</v>
       </c>
       <c r="C21" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1219</v>
@@ -17805,7 +17811,7 @@
         <v>1010</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M21" t="s">
         <v>1174</v>
@@ -17840,7 +17846,7 @@
         <v>1299</v>
       </c>
       <c r="C22" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1223</v>
@@ -17855,7 +17861,7 @@
         <v>1237</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M22" t="s">
         <v>1175</v>
@@ -17890,7 +17896,7 @@
         <v>1303</v>
       </c>
       <c r="C23" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>976</v>
@@ -17905,7 +17911,7 @@
         <v>1010</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M23" t="s">
         <v>1176</v>
@@ -17940,7 +17946,7 @@
         <v>1308</v>
       </c>
       <c r="C24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1309</v>
@@ -17961,7 +17967,7 @@
         <v>1010</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M24" t="s">
         <v>1177</v>
@@ -18011,7 +18017,7 @@
         <v>1010</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M25" t="s">
         <v>1178</v>
@@ -18061,7 +18067,7 @@
         <v>1237</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M26" t="s">
         <v>1179</v>
@@ -18111,7 +18117,7 @@
         <v>1010</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M27" t="s">
         <v>1180</v>
@@ -18161,7 +18167,7 @@
         <v>1330</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M28" t="s">
         <v>1181</v>
@@ -18208,7 +18214,7 @@
         <v>1010</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M29" t="s">
         <v>1182</v>
@@ -18255,7 +18261,7 @@
         <v>1010</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M30" t="s">
         <v>1183</v>
@@ -18302,7 +18308,7 @@
         <v>1010</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M31" t="s">
         <v>1184</v>
@@ -18349,7 +18355,7 @@
         <v>1010</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M32" t="s">
         <v>1185</v>
@@ -18396,7 +18402,7 @@
         <v>1010</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M33" t="s">
         <v>1186</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC1F62-CE86-498F-98A2-E2B5AA882D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13148187-F00C-4771-ABF3-4393C0A04ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1785" windowWidth="21600" windowHeight="11115" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -32,17 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1389">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -4088,12 +4083,6 @@
     <t>arcadierteam@gmail.com</t>
   </si>
   <si>
-    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo1.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage1.jpg</t>
-  </si>
-  <si>
     <t>Buyer001</t>
   </si>
   <si>
@@ -4172,16 +4161,49 @@
     <t>22Seller</t>
   </si>
   <si>
-    <t>Theme 1</t>
-  </si>
-  <si>
     <t>Bespoke</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>0723OMP</t>
+    <t>0929BasicMonthly</t>
+  </si>
+  <si>
+    <t>0929GrowthMonthly</t>
+  </si>
+  <si>
+    <t>0929ScaleMonthly</t>
+  </si>
+  <si>
+    <t>0929Basic6Mos</t>
+  </si>
+  <si>
+    <t>0929Growth6Mos</t>
+  </si>
+  <si>
+    <t>0929Scale6Mos</t>
+  </si>
+  <si>
+    <t>0929BasicYearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0929GrowthYearly </t>
+  </si>
+  <si>
+    <t>0929ScaleYearly</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Theme 3</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\LogoLayout\\coverimage1.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Core\\Images\\LogoLayout\\logo1.jpg</t>
   </si>
 </sst>
 </file>
@@ -4864,10 +4886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4955,13 +4977,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="30" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>976</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>968</v>
@@ -4976,7 +4998,7 @@
         <v>971</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>972</v>
@@ -4985,21 +5007,421 @@
         <v>1347</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>1348</v>
+        <v>1388</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>1349</v>
+        <v>1387</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="S2" s="30" t="s">
         <v>1000</v>
       </c>
       <c r="T2" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="30" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="30">
         <v>0</v>
       </c>
     </row>
@@ -11520,7 +11942,7 @@
         <v>1010</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M20" t="s">
         <v>1173</v>
@@ -11570,7 +11992,7 @@
         <v>1010</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M21" t="s">
         <v>1174</v>
@@ -11620,7 +12042,7 @@
         <v>1237</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M22" t="s">
         <v>1175</v>
@@ -11670,7 +12092,7 @@
         <v>1010</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M23" t="s">
         <v>1176</v>
@@ -11726,7 +12148,7 @@
         <v>1010</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M24" t="s">
         <v>1177</v>
@@ -11776,7 +12198,7 @@
         <v>1010</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M25" t="s">
         <v>1178</v>
@@ -11826,7 +12248,7 @@
         <v>1237</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M26" t="s">
         <v>1179</v>
@@ -11876,7 +12298,7 @@
         <v>1010</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M27" t="s">
         <v>1180</v>
@@ -11926,7 +12348,7 @@
         <v>1330</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M28" t="s">
         <v>1181</v>
@@ -11973,7 +12395,7 @@
         <v>1010</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M29" t="s">
         <v>1182</v>
@@ -12020,7 +12442,7 @@
         <v>1010</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M30" t="s">
         <v>1183</v>
@@ -12067,7 +12489,7 @@
         <v>1010</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M31" t="s">
         <v>1184</v>
@@ -12114,7 +12536,7 @@
         <v>1010</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M32" t="s">
         <v>1185</v>
@@ -12161,7 +12583,7 @@
         <v>1010</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M33" t="s">
         <v>1186</v>
@@ -14683,7 +15105,7 @@
         <v>1067</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>161</v>
@@ -14730,7 +15152,7 @@
         <v>1068</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>168</v>
@@ -14777,7 +15199,7 @@
         <v>1069</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>173</v>
@@ -14822,7 +15244,7 @@
         <v>1070</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>178</v>
@@ -14869,7 +15291,7 @@
         <v>1071</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>185</v>
@@ -14916,7 +15338,7 @@
         <v>1072</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>192</v>
@@ -14963,7 +15385,7 @@
         <v>1073</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>198</v>
@@ -15010,7 +15432,7 @@
         <v>1074</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>203</v>
@@ -15057,7 +15479,7 @@
         <v>1075</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>208</v>
@@ -15104,7 +15526,7 @@
         <v>1076</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>212</v>
@@ -15151,7 +15573,7 @@
         <v>1077</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>217</v>
@@ -15198,7 +15620,7 @@
         <v>1078</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>222</v>
@@ -15245,7 +15667,7 @@
         <v>1079</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>227</v>
@@ -15292,7 +15714,7 @@
         <v>1080</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>232</v>
@@ -15339,7 +15761,7 @@
         <v>1081</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>238</v>
@@ -15386,7 +15808,7 @@
         <v>1082</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>243</v>
@@ -15433,7 +15855,7 @@
         <v>1083</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>248</v>
@@ -15480,7 +15902,7 @@
         <v>1084</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>253</v>
@@ -15525,7 +15947,7 @@
         <v>1085</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>257</v>
@@ -15570,7 +15992,7 @@
         <v>1086</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>264</v>
@@ -15615,7 +16037,7 @@
         <v>1087</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>269</v>
@@ -15660,7 +16082,7 @@
         <v>1088</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>275</v>
@@ -15815,7 +16237,7 @@
         <v>1067</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>281</v>
@@ -16718,7 +17140,7 @@
         <v>1206</v>
       </c>
       <c r="C2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1207</v>
@@ -16774,7 +17196,7 @@
         <v>1212</v>
       </c>
       <c r="C3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1213</v>
@@ -16828,7 +17250,7 @@
         <v>1218</v>
       </c>
       <c r="C4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>1219</v>
@@ -16882,7 +17304,7 @@
         <v>1222</v>
       </c>
       <c r="C5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1223</v>
@@ -16936,7 +17358,7 @@
         <v>1228</v>
       </c>
       <c r="C6" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>976</v>
@@ -16993,7 +17415,7 @@
         <v>1236</v>
       </c>
       <c r="C7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>976</v>
@@ -17053,7 +17475,7 @@
         <v>1240</v>
       </c>
       <c r="C8" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>976</v>
@@ -17110,7 +17532,7 @@
         <v>1244</v>
       </c>
       <c r="C9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>976</v>
@@ -17170,7 +17592,7 @@
         <v>1249</v>
       </c>
       <c r="C10" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>976</v>
@@ -17227,7 +17649,7 @@
         <v>1253</v>
       </c>
       <c r="C11" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>976</v>
@@ -17287,7 +17709,7 @@
         <v>1257</v>
       </c>
       <c r="C12" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>1207</v>
@@ -17341,7 +17763,7 @@
         <v>1263</v>
       </c>
       <c r="C13" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>1213</v>
@@ -17395,7 +17817,7 @@
         <v>1265</v>
       </c>
       <c r="C14" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1219</v>
@@ -17449,7 +17871,7 @@
         <v>1268</v>
       </c>
       <c r="C15" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1223</v>
@@ -17503,7 +17925,7 @@
         <v>1270</v>
       </c>
       <c r="C16" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>976</v>
@@ -17562,7 +17984,7 @@
         <v>1276</v>
       </c>
       <c r="C17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>976</v>
@@ -17624,7 +18046,7 @@
         <v>1281</v>
       </c>
       <c r="C18" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>976</v>
@@ -17683,7 +18105,7 @@
         <v>1286</v>
       </c>
       <c r="C19" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>976</v>
@@ -17742,7 +18164,7 @@
         <v>1291</v>
       </c>
       <c r="C20" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D20" s="2"/>
       <c r="G20" s="3">
@@ -17755,7 +18177,7 @@
         <v>1010</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M20" t="s">
         <v>1173</v>
@@ -17790,7 +18212,7 @@
         <v>1295</v>
       </c>
       <c r="C21" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1219</v>
@@ -17805,7 +18227,7 @@
         <v>1010</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M21" t="s">
         <v>1174</v>
@@ -17840,7 +18262,7 @@
         <v>1299</v>
       </c>
       <c r="C22" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1223</v>
@@ -17855,7 +18277,7 @@
         <v>1237</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M22" t="s">
         <v>1175</v>
@@ -17890,7 +18312,7 @@
         <v>1303</v>
       </c>
       <c r="C23" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>976</v>
@@ -17905,7 +18327,7 @@
         <v>1010</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M23" t="s">
         <v>1176</v>
@@ -17940,7 +18362,7 @@
         <v>1308</v>
       </c>
       <c r="C24" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1309</v>
@@ -17961,7 +18383,7 @@
         <v>1010</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M24" t="s">
         <v>1177</v>
@@ -18011,7 +18433,7 @@
         <v>1010</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M25" t="s">
         <v>1178</v>
@@ -18061,7 +18483,7 @@
         <v>1237</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M26" t="s">
         <v>1179</v>
@@ -18111,7 +18533,7 @@
         <v>1010</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M27" t="s">
         <v>1180</v>
@@ -18161,7 +18583,7 @@
         <v>1330</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M28" t="s">
         <v>1181</v>
@@ -18208,7 +18630,7 @@
         <v>1010</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M29" t="s">
         <v>1182</v>
@@ -18255,7 +18677,7 @@
         <v>1010</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M30" t="s">
         <v>1183</v>
@@ -18302,7 +18724,7 @@
         <v>1010</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M31" t="s">
         <v>1184</v>
@@ -18349,7 +18771,7 @@
         <v>1010</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M32" t="s">
         <v>1185</v>
@@ -18396,7 +18818,7 @@
         <v>1010</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M33" t="s">
         <v>1186</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -5,31 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Core\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30764D37-1D9E-424E-B182-405E8824FA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6C1CA-EA75-4CDB-92AC-3083D88557EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1215" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1215" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
     <sheet name="Admin Delivery " sheetId="2" r:id="rId2"/>
     <sheet name="Merchant Delivery " sheetId="3" r:id="rId3"/>
     <sheet name="Seller Name" sheetId="4" r:id="rId4"/>
-    <sheet name="Buyer Name" sheetId="5" r:id="rId5"/>
-    <sheet name="Sub Seller" sheetId="6" r:id="rId6"/>
-    <sheet name="Sub Buyer" sheetId="16" r:id="rId7"/>
-    <sheet name="Custom Fields" sheetId="7" r:id="rId8"/>
-    <sheet name="AllCustomField" sheetId="8" r:id="rId9"/>
-    <sheet name="Admin Onboarding" sheetId="10" r:id="rId10"/>
-    <sheet name="Item List Variants" sheetId="9" r:id="rId11"/>
-    <sheet name="Item List Country" sheetId="11" r:id="rId12"/>
-    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId13"/>
-    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId14"/>
-    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId15"/>
-    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId16"/>
-    <sheet name="MLC" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId5"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId6"/>
+    <sheet name="Sub Seller" sheetId="6" r:id="rId7"/>
+    <sheet name="Sub Buyer" sheetId="16" r:id="rId8"/>
+    <sheet name="Custom Fields" sheetId="7" r:id="rId9"/>
+    <sheet name="AllCustomField" sheetId="8" r:id="rId10"/>
+    <sheet name="Admin Onboarding" sheetId="10" r:id="rId11"/>
+    <sheet name="Item List Variants" sheetId="9" r:id="rId12"/>
+    <sheet name="Item List Country" sheetId="11" r:id="rId13"/>
+    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId14"/>
+    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId15"/>
+    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId16"/>
+    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId17"/>
+    <sheet name="MLC" sheetId="21" r:id="rId18"/>
+    <sheet name="Language" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1088">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3252,6 +3254,60 @@
   </si>
   <si>
     <t>seller0046</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -5283,6 +5339,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -5782,7 +6871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -6292,7 +7381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -6961,7 +8050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -7676,7 +8765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7B276C-8900-43E0-9171-623741A91B2F}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -8335,7 +9424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772860E0-987C-4E6A-A63C-53D830B51E86}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -8576,7 +9665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E84A1-4518-4C42-9323-DE2E78B6BC37}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -8810,7 +9899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1852D31-E97A-4185-A1D2-0A38320741DB}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -9147,6 +10236,109 @@
       </c>
       <c r="N9" t="s">
         <v>953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4DC95C-24BE-4F10-9FE9-555B149EB276}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -10327,7 +11519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
@@ -11474,6 +12666,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0201C2E9-9C4D-4891-A9B2-B509B2714BBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -12346,7 +13550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -12520,7 +13724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF73CFBE-DD50-472F-9ACD-6503C1B8F355}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -12691,7 +13895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Z59"/>
   <sheetViews>
@@ -15150,1037 +16354,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F72"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>814</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>568</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>630</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>621</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>597</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>617</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>622</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>627</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>641</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>598</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>628</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>633</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>